--- a/teaching/traditional_assets/database/data/jordan/jordan_chemical_basic.xlsx
+++ b/teaching/traditional_assets/database/data/jordan/jordan_chemical_basic.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="ase_joir" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0851</v>
+        <v>-0.0765</v>
       </c>
       <c r="G2">
-        <v>0.1284016690856313</v>
+        <v>-0.1758510898848885</v>
       </c>
       <c r="H2">
-        <v>0.1284016690856313</v>
+        <v>-0.1758510898848885</v>
       </c>
       <c r="I2">
-        <v>0.007937227866473143</v>
+        <v>-0.2057310800881705</v>
       </c>
       <c r="J2">
-        <v>0.007937227866473143</v>
+        <v>-0.1822509024694119</v>
       </c>
       <c r="K2">
-        <v>-0.505</v>
+        <v>-1.059</v>
       </c>
       <c r="L2">
-        <v>-0.02290457184325109</v>
+        <v>-0.2593681116825863</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +635,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>4.368</v>
+        <v>0.445</v>
       </c>
       <c r="V2">
-        <v>0.146971736204576</v>
+        <v>0.03638593622240392</v>
       </c>
       <c r="W2">
-        <v>-0.03209606986899564</v>
+        <v>-0.1198917399804496</v>
       </c>
       <c r="X2">
-        <v>0.142185575175715</v>
+        <v>0.1580456589933308</v>
       </c>
       <c r="Y2">
-        <v>-0.1742816450447106</v>
+        <v>-0.2779373989737804</v>
       </c>
       <c r="Z2">
-        <v>0.3382580813427226</v>
+        <v>0.1225390156062425</v>
       </c>
       <c r="AA2">
-        <v>-0.01748546389146372</v>
+        <v>-0.04224813812432277</v>
       </c>
       <c r="AB2">
-        <v>0.1144037230253547</v>
+        <v>0.1023195672931903</v>
       </c>
       <c r="AC2">
-        <v>-0.1318891869168185</v>
+        <v>-0.144567705417513</v>
       </c>
       <c r="AD2">
-        <v>7.44</v>
+        <v>7.56</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>7.44</v>
+        <v>7.56</v>
       </c>
       <c r="AG2">
-        <v>3.072</v>
+        <v>7.114999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.2002152852529602</v>
+        <v>0.382011116725619</v>
       </c>
       <c r="AI2">
-        <v>0.1178147268408551</v>
+        <v>0.2271634615384615</v>
       </c>
       <c r="AJ2">
-        <v>0.09368138570383019</v>
+        <v>0.3677952959421039</v>
       </c>
       <c r="AK2">
-        <v>0.05226089619271206</v>
+        <v>0.2166895081467946</v>
       </c>
       <c r="AL2">
-        <v>0.768</v>
+        <v>0.325</v>
       </c>
       <c r="AM2">
-        <v>0.741</v>
+        <v>0.325</v>
       </c>
       <c r="AN2">
-        <v>2.119054400455711</v>
+        <v>-33.45132743362831</v>
       </c>
       <c r="AO2">
-        <v>0.2278645833333332</v>
+        <v>-2.584615384615384</v>
       </c>
       <c r="AP2">
-        <v>0.8749643976075191</v>
+        <v>-31.48230088495574</v>
       </c>
       <c r="AQ2">
-        <v>0.2361673414304992</v>
+        <v>-2.584615384615384</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +712,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>National Chlorine Industries Co. Ltd. (ASE:NATC)</t>
+          <t>Jordan Industrial Resources Co. Ltd. (ASE:JOIR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +721,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.117</v>
+        <v>-0.131</v>
       </c>
       <c r="G3">
-        <v>0.1785714285714286</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1785714285714286</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1464285714285714</v>
+        <v>0.004581901489117984</v>
       </c>
       <c r="J3">
-        <v>0.1464285714285714</v>
+        <v>0.003536032670949749</v>
       </c>
       <c r="K3">
-        <v>2.48</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="L3">
-        <v>0.1476190476190476</v>
+        <v>0.0813287514318442</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,70 +763,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.94</v>
+        <v>0.133</v>
       </c>
       <c r="V3">
-        <v>0.1743362831858407</v>
+        <v>0.01532258064516129</v>
       </c>
       <c r="W3">
-        <v>0.2339622641509434</v>
+        <v>0.003227272727272727</v>
       </c>
       <c r="X3">
-        <v>0.1062754072319826</v>
+        <v>0.1046815400184647</v>
       </c>
       <c r="Y3">
-        <v>0.1276868569189608</v>
+        <v>-0.1014542672911919</v>
       </c>
       <c r="Z3">
-        <v>0.6544094733561857</v>
+        <v>0.03739238446053026</v>
       </c>
       <c r="AA3">
-        <v>0.09582424431287005</v>
+        <v>0.0001322206930971487</v>
       </c>
       <c r="AB3">
-        <v>0.1062754072319826</v>
+        <v>0.0974740777206325</v>
       </c>
       <c r="AC3">
-        <v>-0.01045116291911254</v>
+        <v>-0.09734185702753535</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AG3">
-        <v>-3.94</v>
+        <v>1.257</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.1380337636544191</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.0589232725731242</v>
       </c>
       <c r="AJ3">
-        <v>-0.2111468381564845</v>
+        <v>0.126496930663178</v>
       </c>
       <c r="AK3">
-        <v>-0.1591276252019386</v>
+        <v>0.05358741527049495</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM3">
-        <v>-0.027</v>
+        <v>0.003</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>28.95833333333333</v>
+      </c>
+      <c r="AO3">
+        <v>1.333333333333333</v>
       </c>
       <c r="AP3">
-        <v>-0.8794642857142856</v>
+        <v>26.1875</v>
       </c>
       <c r="AQ3">
-        <v>-91.11111111111111</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +840,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jordan Industrial Resources Company Ltd. (ASE:JOIR)</t>
+          <t>Intermediate Petrochemicals Industries Co. Ltd (ASE:IPCH)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -844,25 +849,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.424</v>
+        <v>-0.022</v>
       </c>
       <c r="G4">
-        <v>0.6867088607594938</v>
+        <v>-0.2236760124610592</v>
       </c>
       <c r="H4">
-        <v>0.6867088607594938</v>
+        <v>-0.2236760124610592</v>
       </c>
       <c r="I4">
-        <v>-0.4377637130801688</v>
+        <v>-0.2629283489096573</v>
       </c>
       <c r="J4">
-        <v>-0.4377637130801688</v>
+        <v>-0.2629283489096573</v>
       </c>
       <c r="K4">
-        <v>-0.735</v>
+        <v>-1.13</v>
       </c>
       <c r="L4">
-        <v>-0.7753164556962026</v>
+        <v>-0.35202492211838</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -886,201 +891,8791 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.023</v>
+        <v>0.312</v>
       </c>
       <c r="V4">
-        <v>0.008914728682170543</v>
+        <v>0.08788732394366197</v>
       </c>
       <c r="W4">
-        <v>-0.03209606986899564</v>
+        <v>-0.243010752688172</v>
       </c>
       <c r="X4">
-        <v>0.142185575175715</v>
+        <v>0.211409777968197</v>
       </c>
       <c r="Y4">
-        <v>-0.1742816450447106</v>
+        <v>-0.454420530656369</v>
       </c>
       <c r="Z4">
-        <v>0.03994269823881352</v>
+        <v>0.3218690464253484</v>
       </c>
       <c r="AA4">
-        <v>-0.01748546389146372</v>
+        <v>-0.0846284969417427</v>
       </c>
       <c r="AB4">
-        <v>0.1144037230253547</v>
+        <v>0.1071650568657481</v>
       </c>
       <c r="AC4">
-        <v>-0.1318891869168185</v>
+        <v>-0.1917935538074907</v>
       </c>
       <c r="AD4">
-        <v>1.33</v>
+        <v>6.17</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.33</v>
+        <v>6.17</v>
       </c>
       <c r="AG4">
-        <v>1.307</v>
+        <v>5.858</v>
       </c>
       <c r="AH4">
-        <v>0.340153452685422</v>
+        <v>0.6347736625514404</v>
       </c>
       <c r="AI4">
-        <v>0.05652358691032724</v>
+        <v>0.6367389060887513</v>
       </c>
       <c r="AJ4">
-        <v>0.3362490352456908</v>
+        <v>0.6226615646258503</v>
       </c>
       <c r="AK4">
-        <v>0.05560045943761434</v>
+        <v>0.6246534442311793</v>
       </c>
       <c r="AL4">
-        <v>0.374</v>
+        <v>0.322</v>
       </c>
       <c r="AM4">
-        <v>0.374</v>
+        <v>0.322</v>
       </c>
       <c r="AN4">
-        <v>7.777777777777778</v>
+        <v>-22.51824817518248</v>
       </c>
       <c r="AO4">
-        <v>-1.109625668449198</v>
+        <v>-2.62111801242236</v>
       </c>
       <c r="AP4">
-        <v>7.64327485380117</v>
+        <v>-21.37956204379562</v>
       </c>
       <c r="AQ4">
-        <v>-1.109625668449198</v>
+        <v>-2.62111801242236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jordan Industrial Resources Co. Ltd. (ASE:JOIR)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASE:JOIR</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chemical (Basic)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.138033763654419</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>8.68</v>
+      </c>
+      <c r="H2">
+        <v>10.4959538711717</v>
+      </c>
+      <c r="I2">
+        <v>9.936999999999999</v>
+      </c>
+      <c r="J2">
+        <v>10.3629538711718</v>
+      </c>
+      <c r="K2">
+        <v>1.39</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0974740777206325</v>
+      </c>
+      <c r="N2">
+        <v>0.0938498128431652</v>
+      </c>
+      <c r="O2">
+        <v>0.0524663275442418</v>
+      </c>
+      <c r="P2">
+        <v>0.01296</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Caa/CCC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.104681540018465</v>
+      </c>
+      <c r="T2">
+        <v>0.0938498128431652</v>
+      </c>
+      <c r="U2">
+        <v>1.05046886254238</v>
+      </c>
+      <c r="V2">
+        <v>0.931175421453005</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>8.68</v>
+      </c>
+      <c r="AB2">
+        <v>0.09079901691480829</v>
+      </c>
+      <c r="AC2">
+        <v>0.06558290943030221</v>
+      </c>
+      <c r="AD2">
+        <v>0.2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.048</v>
+      </c>
+      <c r="AH2">
+        <v>0.044</v>
+      </c>
+      <c r="AI2">
+        <v>0.045</v>
+      </c>
+      <c r="AJ2">
+        <v>1.39</v>
+      </c>
+      <c r="AK2">
+        <v>1.39</v>
+      </c>
+      <c r="AL2">
+        <v>0.003</v>
+      </c>
+      <c r="AM2">
+        <v>1.39</v>
+      </c>
+      <c r="AN2">
+        <v>0.133</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.09384981284316515</v>
+      </c>
+      <c r="C2">
+        <v>10.49595387117175</v>
+      </c>
+      <c r="D2">
+        <v>10.36295387117175</v>
+      </c>
+      <c r="E2">
+        <v>-1.39</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.133</v>
+      </c>
+      <c r="H2">
+        <v>8.68</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.048</v>
+      </c>
+      <c r="K2">
+        <v>0.044</v>
+      </c>
+      <c r="L2">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="O2">
+        <v>0.0008000000000000008</v>
+      </c>
+      <c r="P2">
+        <v>0.003200000000000003</v>
+      </c>
+      <c r="Q2">
+        <v>0.0472</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.09384981284316515</v>
+      </c>
+      <c r="T2">
+        <v>0.9311754214530051</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.01296</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.09547780408234904</v>
+      </c>
+      <c r="C3">
+        <v>10.1994865469288</v>
+      </c>
+      <c r="D3">
+        <v>10.1671865469288</v>
+      </c>
+      <c r="E3">
+        <v>-1.2893</v>
+      </c>
+      <c r="F3">
+        <v>0.1007</v>
+      </c>
+      <c r="G3">
+        <v>0.133</v>
+      </c>
+      <c r="H3">
+        <v>8.68</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.048</v>
+      </c>
+      <c r="K3">
+        <v>0.044</v>
+      </c>
+      <c r="L3">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M3">
+        <v>0.01849859</v>
+      </c>
+      <c r="N3">
+        <v>-0.01449859</v>
+      </c>
+      <c r="O3">
+        <v>-0.002899718</v>
+      </c>
+      <c r="P3">
+        <v>-0.011598872</v>
+      </c>
+      <c r="Q3">
+        <v>0.032401128</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.09466691714656544</v>
+      </c>
+      <c r="T3">
+        <v>0.9401744649577044</v>
+      </c>
+      <c r="U3">
+        <v>0.1837</v>
+      </c>
+      <c r="V3">
+        <v>0.04324653933083553</v>
+      </c>
+      <c r="W3">
+        <v>0.1757556107249255</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>0.2162326966541775</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.09722180408234904</v>
+      </c>
+      <c r="C4">
+        <v>9.897112189550558</v>
+      </c>
+      <c r="D4">
+        <v>9.965512189550557</v>
+      </c>
+      <c r="E4">
+        <v>-1.1886</v>
+      </c>
+      <c r="F4">
+        <v>0.2014</v>
+      </c>
+      <c r="G4">
+        <v>0.133</v>
+      </c>
+      <c r="H4">
+        <v>8.68</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.048</v>
+      </c>
+      <c r="K4">
+        <v>0.044</v>
+      </c>
+      <c r="L4">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M4">
+        <v>0.03699718</v>
+      </c>
+      <c r="N4">
+        <v>-0.03299718</v>
+      </c>
+      <c r="O4">
+        <v>-0.006599436</v>
+      </c>
+      <c r="P4">
+        <v>-0.026397744</v>
+      </c>
+      <c r="Q4">
+        <v>0.017602256</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.09553800813785693</v>
+      </c>
+      <c r="T4">
+        <v>0.9497680819470687</v>
+      </c>
+      <c r="U4">
+        <v>0.1837</v>
+      </c>
+      <c r="V4">
+        <v>0.02162326966541776</v>
+      </c>
+      <c r="W4">
+        <v>0.1797278053624628</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>0.1081163483270888</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Intermediate Petrochemicals Industries Co. Ltd (ASE:IPCH)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Chemical (Basic)</t>
-        </is>
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.09896580408234903</v>
+      </c>
+      <c r="C5">
+        <v>9.602582965171838</v>
       </c>
       <c r="D5">
-        <v>-0.0851</v>
+        <v>9.771682965171836</v>
+      </c>
+      <c r="E5">
+        <v>-1.0879</v>
+      </c>
+      <c r="F5">
+        <v>0.3021</v>
       </c>
       <c r="G5">
-        <v>-0.1906976744186046</v>
+        <v>0.133</v>
       </c>
       <c r="H5">
-        <v>-0.1906976744186046</v>
+        <v>8.68</v>
       </c>
       <c r="I5">
-        <v>-0.4348837209302326</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.4348837209302326</v>
+        <v>0.048</v>
       </c>
       <c r="K5">
-        <v>-2.25</v>
+        <v>0.044</v>
       </c>
       <c r="L5">
-        <v>-0.5232558139534884</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>0.05549577</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>-0.05149577</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0.010299154</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>-0.041196616</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.002803383999999999</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0964270597681441</v>
+      </c>
+      <c r="T5">
+        <v>0.9595595054722962</v>
       </c>
       <c r="U5">
-        <v>0.405</v>
+        <v>0.1837</v>
       </c>
       <c r="V5">
-        <v>0.08920704845814978</v>
+        <v>0.01441551311027851</v>
       </c>
       <c r="W5">
-        <v>-0.2480705622932745</v>
-      </c>
-      <c r="X5">
-        <v>0.2000253170447427</v>
+        <v>0.1810518702416418</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
       </c>
       <c r="Y5">
-        <v>-0.4480958793380172</v>
+        <v>0.07207756555139255</v>
       </c>
       <c r="Z5">
-        <v>0.2725832012678288</v>
-      </c>
-      <c r="AA5">
-        <v>-0.1185419968304279</v>
-      </c>
-      <c r="AB5">
-        <v>0.1199847705794526</v>
-      </c>
-      <c r="AC5">
-        <v>-0.2385267674098805</v>
-      </c>
-      <c r="AD5">
-        <v>6.11</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>6.11</v>
-      </c>
-      <c r="AG5">
-        <v>5.705</v>
-      </c>
-      <c r="AH5">
-        <v>0.5737089201877934</v>
-      </c>
-      <c r="AI5">
-        <v>0.5595238095238095</v>
-      </c>
-      <c r="AJ5">
-        <v>0.5568570034163006</v>
-      </c>
-      <c r="AK5">
-        <v>0.5425582501188778</v>
-      </c>
-      <c r="AL5">
-        <v>0.394</v>
-      </c>
-      <c r="AM5">
-        <v>0.394</v>
-      </c>
-      <c r="AN5">
-        <v>-5.359649122807018</v>
-      </c>
-      <c r="AO5">
-        <v>-4.746192893401015</v>
-      </c>
-      <c r="AP5">
-        <v>-5.004385964912281</v>
-      </c>
-      <c r="AQ5">
-        <v>-4.746192893401015</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.1007098040823491</v>
+      </c>
+      <c r="C6">
+        <v>9.315449843885336</v>
+      </c>
+      <c r="D6">
+        <v>9.585249843885334</v>
+      </c>
+      <c r="E6">
+        <v>-0.9871999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.4028</v>
+      </c>
+      <c r="G6">
+        <v>0.133</v>
+      </c>
+      <c r="H6">
+        <v>8.68</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.048</v>
+      </c>
+      <c r="K6">
+        <v>0.044</v>
+      </c>
+      <c r="L6">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M6">
+        <v>0.07399436000000001</v>
+      </c>
+      <c r="N6">
+        <v>-0.06999436000000001</v>
+      </c>
+      <c r="O6">
+        <v>-0.013998872</v>
+      </c>
+      <c r="P6">
+        <v>-0.055995488</v>
+      </c>
+      <c r="Q6">
+        <v>-0.01199548800000001</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.09733463330739563</v>
+      </c>
+      <c r="T6">
+        <v>0.9695549169876327</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>0.01081163483270888</v>
+      </c>
+      <c r="W6">
+        <v>0.1817139026812314</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>0.05405817416354441</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.102453804082349</v>
+      </c>
+      <c r="C7">
+        <v>9.035297422243401</v>
+      </c>
+      <c r="D7">
+        <v>9.405797422243401</v>
+      </c>
+      <c r="E7">
+        <v>-0.8864999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.5035000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.133</v>
+      </c>
+      <c r="H7">
+        <v>8.68</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.048</v>
+      </c>
+      <c r="K7">
+        <v>0.044</v>
+      </c>
+      <c r="L7">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M7">
+        <v>0.09249295000000002</v>
+      </c>
+      <c r="N7">
+        <v>-0.08849295000000001</v>
+      </c>
+      <c r="O7">
+        <v>-0.01769859</v>
+      </c>
+      <c r="P7">
+        <v>-0.07079436000000001</v>
+      </c>
+      <c r="Q7">
+        <v>-0.02679436000000002</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.09826131365799978</v>
+      </c>
+      <c r="T7">
+        <v>0.9797607582190815</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>0.008649307866167103</v>
+      </c>
+      <c r="W7">
+        <v>0.1821111221449851</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>0.04324653933083555</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.104197804082349</v>
+      </c>
+      <c r="C8">
+        <v>8.761740833379045</v>
+      </c>
+      <c r="D8">
+        <v>9.232940833379047</v>
+      </c>
+      <c r="E8">
+        <v>-0.7857999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.6042</v>
+      </c>
+      <c r="G8">
+        <v>0.133</v>
+      </c>
+      <c r="H8">
+        <v>8.68</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.048</v>
+      </c>
+      <c r="K8">
+        <v>0.044</v>
+      </c>
+      <c r="L8">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M8">
+        <v>0.11099154</v>
+      </c>
+      <c r="N8">
+        <v>-0.10699154</v>
+      </c>
+      <c r="O8">
+        <v>-0.021398308</v>
+      </c>
+      <c r="P8">
+        <v>-0.08559323199999999</v>
+      </c>
+      <c r="Q8">
+        <v>-0.04159323199999999</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.09920771061180829</v>
+      </c>
+      <c r="T8">
+        <v>0.9901837450086461</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>0.007207756555139254</v>
+      </c>
+      <c r="W8">
+        <v>0.1823759351208209</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>0.03603878277569628</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.105941804082349</v>
+      </c>
+      <c r="C9">
+        <v>8.49442299168714</v>
+      </c>
+      <c r="D9">
+        <v>9.066322991687141</v>
+      </c>
+      <c r="E9">
+        <v>-0.6850999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.7049000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.133</v>
+      </c>
+      <c r="H9">
+        <v>8.68</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.048</v>
+      </c>
+      <c r="K9">
+        <v>0.044</v>
+      </c>
+      <c r="L9">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M9">
+        <v>0.12949013</v>
+      </c>
+      <c r="N9">
+        <v>-0.12549013</v>
+      </c>
+      <c r="O9">
+        <v>-0.025098026</v>
+      </c>
+      <c r="P9">
+        <v>-0.100392104</v>
+      </c>
+      <c r="Q9">
+        <v>-0.05639210400000001</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1001744601882794</v>
+      </c>
+      <c r="T9">
+        <v>1.00083088205175</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>0.006178077047262217</v>
+      </c>
+      <c r="W9">
+        <v>0.1825650872464179</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.03089038523631105</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.107685804082349</v>
+      </c>
+      <c r="C10">
+        <v>8.233012130552458</v>
+      </c>
+      <c r="D10">
+        <v>8.905612130552459</v>
+      </c>
+      <c r="E10">
+        <v>-0.5843999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.8056000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.133</v>
+      </c>
+      <c r="H10">
+        <v>8.68</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.048</v>
+      </c>
+      <c r="K10">
+        <v>0.044</v>
+      </c>
+      <c r="L10">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M10">
+        <v>0.14798872</v>
+      </c>
+      <c r="N10">
+        <v>-0.14398872</v>
+      </c>
+      <c r="O10">
+        <v>-0.028797744</v>
+      </c>
+      <c r="P10">
+        <v>-0.115190976</v>
+      </c>
+      <c r="Q10">
+        <v>-0.07119097600000002</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1011622260598911</v>
+      </c>
+      <c r="T10">
+        <v>1.011709478595791</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>0.005405817416354441</v>
+      </c>
+      <c r="W10">
+        <v>0.1827069513406157</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.02702908708177221</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1094298040823491</v>
+      </c>
+      <c r="C11">
+        <v>7.977199597395893</v>
+      </c>
+      <c r="D11">
+        <v>8.750499597395894</v>
+      </c>
+      <c r="E11">
+        <v>-0.4836999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.9063</v>
+      </c>
+      <c r="G11">
+        <v>0.133</v>
+      </c>
+      <c r="H11">
+        <v>8.68</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.048</v>
+      </c>
+      <c r="K11">
+        <v>0.044</v>
+      </c>
+      <c r="L11">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M11">
+        <v>0.16648731</v>
+      </c>
+      <c r="N11">
+        <v>-0.16248731</v>
+      </c>
+      <c r="O11">
+        <v>-0.032497462</v>
+      </c>
+      <c r="P11">
+        <v>-0.129989848</v>
+      </c>
+      <c r="Q11">
+        <v>-0.08598984799999999</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1021717010715382</v>
+      </c>
+      <c r="T11">
+        <v>1.022827165173766</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>0.004805171036759503</v>
+      </c>
+      <c r="W11">
+        <v>0.1828172900805473</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.02402585518379752</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.1111738040823491</v>
+      </c>
+      <c r="C12">
+        <v>7.726697875203188</v>
+      </c>
+      <c r="D12">
+        <v>8.600697875203187</v>
+      </c>
+      <c r="E12">
+        <v>-0.3829999999999998</v>
+      </c>
+      <c r="F12">
+        <v>1.007</v>
+      </c>
+      <c r="G12">
+        <v>0.133</v>
+      </c>
+      <c r="H12">
+        <v>8.68</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.048</v>
+      </c>
+      <c r="K12">
+        <v>0.044</v>
+      </c>
+      <c r="L12">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M12">
+        <v>0.1849859</v>
+      </c>
+      <c r="N12">
+        <v>-0.1809859</v>
+      </c>
+      <c r="O12">
+        <v>-0.03619718000000001</v>
+      </c>
+      <c r="P12">
+        <v>-0.14478872</v>
+      </c>
+      <c r="Q12">
+        <v>-0.10078872</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.103203608861222</v>
+      </c>
+      <c r="T12">
+        <v>1.034191911453475</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0.004324653933083552</v>
+      </c>
+      <c r="W12">
+        <v>0.1829055610724926</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.02162326966541772</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.112917804082349</v>
+      </c>
+      <c r="C13">
+        <v>7.481238803852539</v>
+      </c>
+      <c r="D13">
+        <v>8.45593880385254</v>
+      </c>
+      <c r="E13">
+        <v>-0.2822999999999998</v>
+      </c>
+      <c r="F13">
+        <v>1.1077</v>
+      </c>
+      <c r="G13">
+        <v>0.133</v>
+      </c>
+      <c r="H13">
+        <v>8.68</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.048</v>
+      </c>
+      <c r="K13">
+        <v>0.044</v>
+      </c>
+      <c r="L13">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M13">
+        <v>0.20348449</v>
+      </c>
+      <c r="N13">
+        <v>-0.19948449</v>
+      </c>
+      <c r="O13">
+        <v>-0.03989689800000001</v>
+      </c>
+      <c r="P13">
+        <v>-0.159587592</v>
+      </c>
+      <c r="Q13">
+        <v>-0.115587592</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1042587055899998</v>
+      </c>
+      <c r="T13">
+        <v>1.045812045290031</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0.003931503575530502</v>
+      </c>
+      <c r="W13">
+        <v>0.1829777827931751</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.01965751787765246</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1146618040823491</v>
+      </c>
+      <c r="C14">
+        <v>7.24057197809097</v>
+      </c>
+      <c r="D14">
+        <v>8.315971978090969</v>
+      </c>
+      <c r="E14">
+        <v>-0.1816</v>
+      </c>
+      <c r="F14">
+        <v>1.2084</v>
+      </c>
+      <c r="G14">
+        <v>0.133</v>
+      </c>
+      <c r="H14">
+        <v>8.68</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.048</v>
+      </c>
+      <c r="K14">
+        <v>0.044</v>
+      </c>
+      <c r="L14">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M14">
+        <v>0.22198308</v>
+      </c>
+      <c r="N14">
+        <v>-0.21798308</v>
+      </c>
+      <c r="O14">
+        <v>-0.043596616</v>
+      </c>
+      <c r="P14">
+        <v>-0.174386464</v>
+      </c>
+      <c r="Q14">
+        <v>-0.130386464</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1053377817898861</v>
+      </c>
+      <c r="T14">
+        <v>1.057696273077418</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0.003603878277569627</v>
+      </c>
+      <c r="W14">
+        <v>0.1830379675604105</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.01801939138784814</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.116405804082349</v>
+      </c>
+      <c r="C15">
+        <v>7.004463302024825</v>
+      </c>
+      <c r="D15">
+        <v>8.180563302024824</v>
+      </c>
+      <c r="E15">
+        <v>-0.08089999999999975</v>
+      </c>
+      <c r="F15">
+        <v>1.3091</v>
+      </c>
+      <c r="G15">
+        <v>0.133</v>
+      </c>
+      <c r="H15">
+        <v>8.68</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.048</v>
+      </c>
+      <c r="K15">
+        <v>0.044</v>
+      </c>
+      <c r="L15">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M15">
+        <v>0.24048167</v>
+      </c>
+      <c r="N15">
+        <v>-0.23648167</v>
+      </c>
+      <c r="O15">
+        <v>-0.04729633400000001</v>
+      </c>
+      <c r="P15">
+        <v>-0.189185336</v>
+      </c>
+      <c r="Q15">
+        <v>-0.1451853360000001</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1064416643391952</v>
+      </c>
+      <c r="T15">
+        <v>1.069853701503595</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0.003326656871602733</v>
+      </c>
+      <c r="W15">
+        <v>0.1830888931326866</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.0166332843580137</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1181498040823491</v>
+      </c>
+      <c r="C16">
+        <v>6.772693682570683</v>
+      </c>
+      <c r="D16">
+        <v>8.049493682570683</v>
+      </c>
+      <c r="E16">
+        <v>0.01980000000000026</v>
+      </c>
+      <c r="F16">
+        <v>1.4098</v>
+      </c>
+      <c r="G16">
+        <v>0.133</v>
+      </c>
+      <c r="H16">
+        <v>8.68</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.048</v>
+      </c>
+      <c r="K16">
+        <v>0.044</v>
+      </c>
+      <c r="L16">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M16">
+        <v>0.25898026</v>
+      </c>
+      <c r="N16">
+        <v>-0.25498026</v>
+      </c>
+      <c r="O16">
+        <v>-0.05099605200000001</v>
+      </c>
+      <c r="P16">
+        <v>-0.203984208</v>
+      </c>
+      <c r="Q16">
+        <v>-0.159984208</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1075712185756974</v>
+      </c>
+      <c r="T16">
+        <v>1.082293860823404</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.003089038523631109</v>
+      </c>
+      <c r="W16">
+        <v>0.183132543623209</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.01544519261815558</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.119893804082349</v>
+      </c>
+      <c r="C17">
+        <v>6.545057846527371</v>
+      </c>
+      <c r="D17">
+        <v>7.922557846527372</v>
+      </c>
+      <c r="E17">
+        <v>0.1205000000000001</v>
+      </c>
+      <c r="F17">
+        <v>1.5105</v>
+      </c>
+      <c r="G17">
+        <v>0.133</v>
+      </c>
+      <c r="H17">
+        <v>8.68</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.048</v>
+      </c>
+      <c r="K17">
+        <v>0.044</v>
+      </c>
+      <c r="L17">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M17">
+        <v>0.27747885</v>
+      </c>
+      <c r="N17">
+        <v>-0.27347885</v>
+      </c>
+      <c r="O17">
+        <v>-0.05469577</v>
+      </c>
+      <c r="P17">
+        <v>-0.21878308</v>
+      </c>
+      <c r="Q17">
+        <v>-0.17478308</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1087273505589409</v>
+      </c>
+      <c r="T17">
+        <v>1.095026729774268</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.002883102622055702</v>
+      </c>
+      <c r="W17">
+        <v>0.1831703740483284</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.01441551311027855</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.121637804082349</v>
+      </c>
+      <c r="C18">
+        <v>6.321363267834919</v>
+      </c>
+      <c r="D18">
+        <v>7.799563267834919</v>
+      </c>
+      <c r="E18">
+        <v>0.2212000000000003</v>
+      </c>
+      <c r="F18">
+        <v>1.6112</v>
+      </c>
+      <c r="G18">
+        <v>0.133</v>
+      </c>
+      <c r="H18">
+        <v>8.68</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.048</v>
+      </c>
+      <c r="K18">
+        <v>0.044</v>
+      </c>
+      <c r="L18">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M18">
+        <v>0.29597744</v>
+      </c>
+      <c r="N18">
+        <v>-0.29197744</v>
+      </c>
+      <c r="O18">
+        <v>-0.05839548800000001</v>
+      </c>
+      <c r="P18">
+        <v>-0.233581952</v>
+      </c>
+      <c r="Q18">
+        <v>-0.1895819520000001</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1099110094941664</v>
+      </c>
+      <c r="T18">
+        <v>1.10806276227158</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.00270290870817722</v>
+      </c>
+      <c r="W18">
+        <v>0.1832034756703078</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.0135145435408861</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.123381804082349</v>
+      </c>
+      <c r="C19">
+        <v>6.101429193229251</v>
+      </c>
+      <c r="D19">
+        <v>7.680329193229251</v>
+      </c>
+      <c r="E19">
+        <v>0.3219000000000003</v>
+      </c>
+      <c r="F19">
+        <v>1.7119</v>
+      </c>
+      <c r="G19">
+        <v>0.133</v>
+      </c>
+      <c r="H19">
+        <v>8.68</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.048</v>
+      </c>
+      <c r="K19">
+        <v>0.044</v>
+      </c>
+      <c r="L19">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M19">
+        <v>0.31447603</v>
+      </c>
+      <c r="N19">
+        <v>-0.31047603</v>
+      </c>
+      <c r="O19">
+        <v>-0.06209520600000001</v>
+      </c>
+      <c r="P19">
+        <v>-0.248380824</v>
+      </c>
+      <c r="Q19">
+        <v>-0.204380824</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1111231903314455</v>
+      </c>
+      <c r="T19">
+        <v>1.121412916033888</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.002543914078284443</v>
+      </c>
+      <c r="W19">
+        <v>0.1832326829838191</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.01271957039142224</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1251258040823491</v>
+      </c>
+      <c r="C20">
+        <v>5.885085755921716</v>
+      </c>
+      <c r="D20">
+        <v>7.564685755921716</v>
+      </c>
+      <c r="E20">
+        <v>0.4226000000000001</v>
+      </c>
+      <c r="F20">
+        <v>1.8126</v>
+      </c>
+      <c r="G20">
+        <v>0.133</v>
+      </c>
+      <c r="H20">
+        <v>8.68</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.048</v>
+      </c>
+      <c r="K20">
+        <v>0.044</v>
+      </c>
+      <c r="L20">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M20">
+        <v>0.33297462</v>
+      </c>
+      <c r="N20">
+        <v>-0.32897462</v>
+      </c>
+      <c r="O20">
+        <v>-0.065794924</v>
+      </c>
+      <c r="P20">
+        <v>-0.263179696</v>
+      </c>
+      <c r="Q20">
+        <v>-0.219179696</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1123649365549997</v>
+      </c>
+      <c r="T20">
+        <v>1.135088683302594</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.002402585518379752</v>
+      </c>
+      <c r="W20">
+        <v>0.1832586450402736</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.01201292759189876</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.126869804082349</v>
+      </c>
+      <c r="C21">
+        <v>5.672173168163326</v>
+      </c>
+      <c r="D21">
+        <v>7.452473168163326</v>
+      </c>
+      <c r="E21">
+        <v>0.5233000000000001</v>
+      </c>
+      <c r="F21">
+        <v>1.9133</v>
+      </c>
+      <c r="G21">
+        <v>0.133</v>
+      </c>
+      <c r="H21">
+        <v>8.68</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.048</v>
+      </c>
+      <c r="K21">
+        <v>0.044</v>
+      </c>
+      <c r="L21">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M21">
+        <v>0.35147321</v>
+      </c>
+      <c r="N21">
+        <v>-0.34747321</v>
+      </c>
+      <c r="O21">
+        <v>-0.069494642</v>
+      </c>
+      <c r="P21">
+        <v>-0.277978568</v>
+      </c>
+      <c r="Q21">
+        <v>-0.233978568</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1136373431791355</v>
+      </c>
+      <c r="T21">
+        <v>1.149102123837194</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.002276133648991344</v>
+      </c>
+      <c r="W21">
+        <v>0.1832818742486803</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.01138066824495676</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1286138040823491</v>
+      </c>
+      <c r="C22">
+        <v>5.462540984622295</v>
+      </c>
+      <c r="D22">
+        <v>7.343540984622295</v>
+      </c>
+      <c r="E22">
+        <v>0.6240000000000003</v>
+      </c>
+      <c r="F22">
+        <v>2.014</v>
+      </c>
+      <c r="G22">
+        <v>0.133</v>
+      </c>
+      <c r="H22">
+        <v>8.68</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.048</v>
+      </c>
+      <c r="K22">
+        <v>0.044</v>
+      </c>
+      <c r="L22">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M22">
+        <v>0.3699718000000001</v>
+      </c>
+      <c r="N22">
+        <v>-0.3659718000000001</v>
+      </c>
+      <c r="O22">
+        <v>-0.07319436000000001</v>
+      </c>
+      <c r="P22">
+        <v>-0.2927774400000001</v>
+      </c>
+      <c r="Q22">
+        <v>-0.2487774400000001</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1149415599688747</v>
+      </c>
+      <c r="T22">
+        <v>1.163465900385159</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.002162326966541776</v>
+      </c>
+      <c r="W22">
+        <v>0.1833027805362463</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.01081163483270886</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1303578040823491</v>
+      </c>
+      <c r="C23">
+        <v>5.256047429433823</v>
+      </c>
+      <c r="D23">
+        <v>7.237747429433823</v>
+      </c>
+      <c r="E23">
+        <v>0.7247000000000001</v>
+      </c>
+      <c r="F23">
+        <v>2.1147</v>
+      </c>
+      <c r="G23">
+        <v>0.133</v>
+      </c>
+      <c r="H23">
+        <v>8.68</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.048</v>
+      </c>
+      <c r="K23">
+        <v>0.044</v>
+      </c>
+      <c r="L23">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M23">
+        <v>0.38847039</v>
+      </c>
+      <c r="N23">
+        <v>-0.38447039</v>
+      </c>
+      <c r="O23">
+        <v>-0.076894078</v>
+      </c>
+      <c r="P23">
+        <v>-0.307576312</v>
+      </c>
+      <c r="Q23">
+        <v>-0.263576312</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1162787949051896</v>
+      </c>
+      <c r="T23">
+        <v>1.178193316845731</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.002059359015754073</v>
+      </c>
+      <c r="W23">
+        <v>0.183321695748806</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.01029679507877035</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.132101804082349</v>
+      </c>
+      <c r="C24">
+        <v>5.052558780592248</v>
+      </c>
+      <c r="D24">
+        <v>7.134958780592248</v>
+      </c>
+      <c r="E24">
+        <v>0.8254000000000004</v>
+      </c>
+      <c r="F24">
+        <v>2.2154</v>
+      </c>
+      <c r="G24">
+        <v>0.133</v>
+      </c>
+      <c r="H24">
+        <v>8.68</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.048</v>
+      </c>
+      <c r="K24">
+        <v>0.044</v>
+      </c>
+      <c r="L24">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M24">
+        <v>0.40696898</v>
+      </c>
+      <c r="N24">
+        <v>-0.40296898</v>
+      </c>
+      <c r="O24">
+        <v>-0.08059379600000001</v>
+      </c>
+      <c r="P24">
+        <v>-0.322375184</v>
+      </c>
+      <c r="Q24">
+        <v>-0.2783751840000001</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1176503179167946</v>
+      </c>
+      <c r="T24">
+        <v>1.193298359369394</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.001965751787765251</v>
+      </c>
+      <c r="W24">
+        <v>0.1833388913965875</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.009828758938826287</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1338458040823491</v>
+      </c>
+      <c r="C25">
+        <v>4.851948806064922</v>
+      </c>
+      <c r="D25">
+        <v>7.035048806064921</v>
+      </c>
+      <c r="E25">
+        <v>0.9261000000000001</v>
+      </c>
+      <c r="F25">
+        <v>2.3161</v>
+      </c>
+      <c r="G25">
+        <v>0.133</v>
+      </c>
+      <c r="H25">
+        <v>8.68</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.048</v>
+      </c>
+      <c r="K25">
+        <v>0.044</v>
+      </c>
+      <c r="L25">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M25">
+        <v>0.42546757</v>
+      </c>
+      <c r="N25">
+        <v>-0.42146757</v>
+      </c>
+      <c r="O25">
+        <v>-0.08429351400000001</v>
+      </c>
+      <c r="P25">
+        <v>-0.337174056</v>
+      </c>
+      <c r="Q25">
+        <v>-0.293174056</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.119057464902727</v>
+      </c>
+      <c r="T25">
+        <v>1.208795740659906</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.001880284318731979</v>
+      </c>
+      <c r="W25">
+        <v>0.1833545917706489</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.009401421593659864</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1355898040823491</v>
+      </c>
+      <c r="C26">
+        <v>4.654098246628017</v>
+      </c>
+      <c r="D26">
+        <v>6.937898246628017</v>
+      </c>
+      <c r="E26">
+        <v>1.0268</v>
+      </c>
+      <c r="F26">
+        <v>2.4168</v>
+      </c>
+      <c r="G26">
+        <v>0.133</v>
+      </c>
+      <c r="H26">
+        <v>8.68</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.048</v>
+      </c>
+      <c r="K26">
+        <v>0.044</v>
+      </c>
+      <c r="L26">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M26">
+        <v>0.44396616</v>
+      </c>
+      <c r="N26">
+        <v>-0.43996616</v>
+      </c>
+      <c r="O26">
+        <v>-0.087993232</v>
+      </c>
+      <c r="P26">
+        <v>-0.351972928</v>
+      </c>
+      <c r="Q26">
+        <v>-0.307972928</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1205016420724997</v>
+      </c>
+      <c r="T26">
+        <v>1.224700947773852</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.001801939138784814</v>
+      </c>
+      <c r="W26">
+        <v>0.1833689837802052</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.009009695693924069</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.137333804082349</v>
+      </c>
+      <c r="C27">
+        <v>4.458894340969345</v>
+      </c>
+      <c r="D27">
+        <v>6.843394340969345</v>
+      </c>
+      <c r="E27">
+        <v>1.1275</v>
+      </c>
+      <c r="F27">
+        <v>2.5175</v>
+      </c>
+      <c r="G27">
+        <v>0.133</v>
+      </c>
+      <c r="H27">
+        <v>8.68</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.048</v>
+      </c>
+      <c r="K27">
+        <v>0.044</v>
+      </c>
+      <c r="L27">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M27">
+        <v>0.46246475</v>
+      </c>
+      <c r="N27">
+        <v>-0.45846475</v>
+      </c>
+      <c r="O27">
+        <v>-0.09169295000000001</v>
+      </c>
+      <c r="P27">
+        <v>-0.3667718</v>
+      </c>
+      <c r="Q27">
+        <v>-0.3227718000000001</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1219843306334664</v>
+      </c>
+      <c r="T27">
+        <v>1.24103029374417</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.001729861573233421</v>
+      </c>
+      <c r="W27">
+        <v>0.183382224428997</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.008649307866167133</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.139077804082349</v>
+      </c>
+      <c r="C28">
+        <v>4.266230389082184</v>
+      </c>
+      <c r="D28">
+        <v>6.751430389082184</v>
+      </c>
+      <c r="E28">
+        <v>1.2282</v>
+      </c>
+      <c r="F28">
+        <v>2.6182</v>
+      </c>
+      <c r="G28">
+        <v>0.133</v>
+      </c>
+      <c r="H28">
+        <v>8.68</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.048</v>
+      </c>
+      <c r="K28">
+        <v>0.044</v>
+      </c>
+      <c r="L28">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M28">
+        <v>0.4809633400000001</v>
+      </c>
+      <c r="N28">
+        <v>-0.4769633400000001</v>
+      </c>
+      <c r="O28">
+        <v>-0.09539266800000001</v>
+      </c>
+      <c r="P28">
+        <v>-0.3815706720000001</v>
+      </c>
+      <c r="Q28">
+        <v>-0.3375706720000001</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.123507091858243</v>
+      </c>
+      <c r="T28">
+        <v>1.257800973389361</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.001663328435801366</v>
+      </c>
+      <c r="W28">
+        <v>0.1833944465663433</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.00831664217900685</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1408218040823491</v>
+      </c>
+      <c r="C29">
+        <v>4.076005350395921</v>
+      </c>
+      <c r="D29">
+        <v>6.661905350395921</v>
+      </c>
+      <c r="E29">
+        <v>1.3289</v>
+      </c>
+      <c r="F29">
+        <v>2.7189</v>
+      </c>
+      <c r="G29">
+        <v>0.133</v>
+      </c>
+      <c r="H29">
+        <v>8.68</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.048</v>
+      </c>
+      <c r="K29">
+        <v>0.044</v>
+      </c>
+      <c r="L29">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M29">
+        <v>0.49946193</v>
+      </c>
+      <c r="N29">
+        <v>-0.49546193</v>
+      </c>
+      <c r="O29">
+        <v>-0.099092386</v>
+      </c>
+      <c r="P29">
+        <v>-0.396369544</v>
+      </c>
+      <c r="Q29">
+        <v>-0.352369544</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1250715725686299</v>
+      </c>
+      <c r="T29">
+        <v>1.275031123709764</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.001601723678919834</v>
+      </c>
+      <c r="W29">
+        <v>0.1834057633601824</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.00800861839459921</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.142565804082349</v>
+      </c>
+      <c r="C30">
+        <v>3.888123473461377</v>
+      </c>
+      <c r="D30">
+        <v>6.574723473461377</v>
+      </c>
+      <c r="E30">
+        <v>1.4296</v>
+      </c>
+      <c r="F30">
+        <v>2.8196</v>
+      </c>
+      <c r="G30">
+        <v>0.133</v>
+      </c>
+      <c r="H30">
+        <v>8.68</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.048</v>
+      </c>
+      <c r="K30">
+        <v>0.044</v>
+      </c>
+      <c r="L30">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M30">
+        <v>0.51796052</v>
+      </c>
+      <c r="N30">
+        <v>-0.51396052</v>
+      </c>
+      <c r="O30">
+        <v>-0.102792104</v>
+      </c>
+      <c r="P30">
+        <v>-0.411168416</v>
+      </c>
+      <c r="Q30">
+        <v>-0.3671684160000001</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1266795110765275</v>
+      </c>
+      <c r="T30">
+        <v>1.292739889316844</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.001544519261815554</v>
+      </c>
+      <c r="W30">
+        <v>0.1834162718116045</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.007722596309077789</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1443098040823491</v>
+      </c>
+      <c r="C31">
+        <v>3.702493954337545</v>
+      </c>
+      <c r="D31">
+        <v>6.489793954337545</v>
+      </c>
+      <c r="E31">
+        <v>1.5303</v>
+      </c>
+      <c r="F31">
+        <v>2.9203</v>
+      </c>
+      <c r="G31">
+        <v>0.133</v>
+      </c>
+      <c r="H31">
+        <v>8.68</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.048</v>
+      </c>
+      <c r="K31">
+        <v>0.044</v>
+      </c>
+      <c r="L31">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M31">
+        <v>0.5364591099999999</v>
+      </c>
+      <c r="N31">
+        <v>-0.5324591099999999</v>
+      </c>
+      <c r="O31">
+        <v>-0.106491822</v>
+      </c>
+      <c r="P31">
+        <v>-0.4259672879999999</v>
+      </c>
+      <c r="Q31">
+        <v>-0.381967288</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1283327436269011</v>
+      </c>
+      <c r="T31">
+        <v>1.310947493391729</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.001491259976925363</v>
+      </c>
+      <c r="W31">
+        <v>0.1834260555422388</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.007456299884626816</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.146053804082349</v>
+      </c>
+      <c r="C32">
+        <v>3.519030621117586</v>
+      </c>
+      <c r="D32">
+        <v>6.407030621117586</v>
+      </c>
+      <c r="E32">
+        <v>1.631</v>
+      </c>
+      <c r="F32">
+        <v>3.021</v>
+      </c>
+      <c r="G32">
+        <v>0.133</v>
+      </c>
+      <c r="H32">
+        <v>8.68</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.048</v>
+      </c>
+      <c r="K32">
+        <v>0.044</v>
+      </c>
+      <c r="L32">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M32">
+        <v>0.5549577</v>
+      </c>
+      <c r="N32">
+        <v>-0.5509577</v>
+      </c>
+      <c r="O32">
+        <v>-0.11019154</v>
+      </c>
+      <c r="P32">
+        <v>-0.44076616</v>
+      </c>
+      <c r="Q32">
+        <v>-0.39676616</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1300332113929997</v>
+      </c>
+      <c r="T32">
+        <v>1.329675314725896</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.001441551311027851</v>
+      </c>
+      <c r="W32">
+        <v>0.1834351870241642</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.007207756555139277</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.147797804082349</v>
+      </c>
+      <c r="C33">
+        <v>3.337651642289984</v>
+      </c>
+      <c r="D33">
+        <v>6.326351642289984</v>
+      </c>
+      <c r="E33">
+        <v>1.7317</v>
+      </c>
+      <c r="F33">
+        <v>3.1217</v>
+      </c>
+      <c r="G33">
+        <v>0.133</v>
+      </c>
+      <c r="H33">
+        <v>8.68</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.048</v>
+      </c>
+      <c r="K33">
+        <v>0.044</v>
+      </c>
+      <c r="L33">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M33">
+        <v>0.57345629</v>
+      </c>
+      <c r="N33">
+        <v>-0.56945629</v>
+      </c>
+      <c r="O33">
+        <v>-0.113891258</v>
+      </c>
+      <c r="P33">
+        <v>-0.455565032</v>
+      </c>
+      <c r="Q33">
+        <v>-0.411565032</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1317829680798548</v>
+      </c>
+      <c r="T33">
+        <v>1.348945971461054</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.001395049655833404</v>
+      </c>
+      <c r="W33">
+        <v>0.1834437293782234</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.006975248279167068</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.149541804082349</v>
+      </c>
+      <c r="C34">
+        <v>3.158279256860064</v>
+      </c>
+      <c r="D34">
+        <v>6.247679256860065</v>
+      </c>
+      <c r="E34">
+        <v>1.8324</v>
+      </c>
+      <c r="F34">
+        <v>3.2224</v>
+      </c>
+      <c r="G34">
+        <v>0.133</v>
+      </c>
+      <c r="H34">
+        <v>8.68</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.048</v>
+      </c>
+      <c r="K34">
+        <v>0.044</v>
+      </c>
+      <c r="L34">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M34">
+        <v>0.5919548800000001</v>
+      </c>
+      <c r="N34">
+        <v>-0.5879548800000001</v>
+      </c>
+      <c r="O34">
+        <v>-0.117590976</v>
+      </c>
+      <c r="P34">
+        <v>-0.4703639040000001</v>
+      </c>
+      <c r="Q34">
+        <v>-0.4263639040000001</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1335841881986762</v>
+      </c>
+      <c r="T34">
+        <v>1.368783412217835</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.00135145435408861</v>
+      </c>
+      <c r="W34">
+        <v>0.1834517378351539</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.006757271770443052</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.151285804082349</v>
+      </c>
+      <c r="C35">
+        <v>2.980839524360861</v>
+      </c>
+      <c r="D35">
+        <v>6.170939524360861</v>
+      </c>
+      <c r="E35">
+        <v>1.9331</v>
+      </c>
+      <c r="F35">
+        <v>3.3231</v>
+      </c>
+      <c r="G35">
+        <v>0.133</v>
+      </c>
+      <c r="H35">
+        <v>8.68</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.048</v>
+      </c>
+      <c r="K35">
+        <v>0.044</v>
+      </c>
+      <c r="L35">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M35">
+        <v>0.6104534700000001</v>
+      </c>
+      <c r="N35">
+        <v>-0.60645347</v>
+      </c>
+      <c r="O35">
+        <v>-0.121290694</v>
+      </c>
+      <c r="P35">
+        <v>-0.485162776</v>
+      </c>
+      <c r="Q35">
+        <v>-0.441162776</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1354391760822385</v>
+      </c>
+      <c r="T35">
+        <v>1.389213015385265</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.001310501191843501</v>
+      </c>
+      <c r="W35">
+        <v>0.1834592609310584</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.006552505959217525</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.153029804082349</v>
+      </c>
+      <c r="C36">
+        <v>2.805262093064014</v>
+      </c>
+      <c r="D36">
+        <v>6.096062093064014</v>
+      </c>
+      <c r="E36">
+        <v>2.0338</v>
+      </c>
+      <c r="F36">
+        <v>3.4238</v>
+      </c>
+      <c r="G36">
+        <v>0.133</v>
+      </c>
+      <c r="H36">
+        <v>8.68</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.048</v>
+      </c>
+      <c r="K36">
+        <v>0.044</v>
+      </c>
+      <c r="L36">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M36">
+        <v>0.62895206</v>
+      </c>
+      <c r="N36">
+        <v>-0.62495206</v>
+      </c>
+      <c r="O36">
+        <v>-0.124990412</v>
+      </c>
+      <c r="P36">
+        <v>-0.499961648</v>
+      </c>
+      <c r="Q36">
+        <v>-0.4559616480000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1373503757198482</v>
+      </c>
+      <c r="T36">
+        <v>1.410261697436557</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.001271957039142221</v>
+      </c>
+      <c r="W36">
+        <v>0.1834663414919096</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.006359785195711121</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.154773804082349</v>
+      </c>
+      <c r="C37">
+        <v>2.631479984863383</v>
+      </c>
+      <c r="D37">
+        <v>6.022979984863383</v>
+      </c>
+      <c r="E37">
+        <v>2.134500000000001</v>
+      </c>
+      <c r="F37">
+        <v>3.524500000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.133</v>
+      </c>
+      <c r="H37">
+        <v>8.68</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.048</v>
+      </c>
+      <c r="K37">
+        <v>0.044</v>
+      </c>
+      <c r="L37">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M37">
+        <v>0.6474506500000001</v>
+      </c>
+      <c r="N37">
+        <v>-0.6434506500000001</v>
+      </c>
+      <c r="O37">
+        <v>-0.12869013</v>
+      </c>
+      <c r="P37">
+        <v>-0.5147605200000001</v>
+      </c>
+      <c r="Q37">
+        <v>-0.4707605200000001</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1393203815001535</v>
+      </c>
+      <c r="T37">
+        <v>1.431958031243273</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.001235615409452443</v>
+      </c>
+      <c r="W37">
+        <v>0.1834730174492836</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.006178077047262254</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1565178040823491</v>
+      </c>
+      <c r="C38">
+        <v>2.459429395448761</v>
+      </c>
+      <c r="D38">
+        <v>5.951629395448761</v>
+      </c>
+      <c r="E38">
+        <v>2.2352</v>
+      </c>
+      <c r="F38">
+        <v>3.6252</v>
+      </c>
+      <c r="G38">
+        <v>0.133</v>
+      </c>
+      <c r="H38">
+        <v>8.68</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.048</v>
+      </c>
+      <c r="K38">
+        <v>0.044</v>
+      </c>
+      <c r="L38">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M38">
+        <v>0.66594924</v>
+      </c>
+      <c r="N38">
+        <v>-0.66194924</v>
+      </c>
+      <c r="O38">
+        <v>-0.132389848</v>
+      </c>
+      <c r="P38">
+        <v>-0.529559392</v>
+      </c>
+      <c r="Q38">
+        <v>-0.485559392</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1413519499610934</v>
+      </c>
+      <c r="T38">
+        <v>1.454332375481449</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.001201292759189876</v>
+      </c>
+      <c r="W38">
+        <v>0.1834793225201368</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.006006463795949379</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1582618040823491</v>
+      </c>
+      <c r="C39">
+        <v>2.289049508516642</v>
+      </c>
+      <c r="D39">
+        <v>5.881949508516642</v>
+      </c>
+      <c r="E39">
+        <v>2.335900000000001</v>
+      </c>
+      <c r="F39">
+        <v>3.7259</v>
+      </c>
+      <c r="G39">
+        <v>0.133</v>
+      </c>
+      <c r="H39">
+        <v>8.68</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.048</v>
+      </c>
+      <c r="K39">
+        <v>0.044</v>
+      </c>
+      <c r="L39">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M39">
+        <v>0.6844478300000001</v>
+      </c>
+      <c r="N39">
+        <v>-0.6804478300000001</v>
+      </c>
+      <c r="O39">
+        <v>-0.136089566</v>
+      </c>
+      <c r="P39">
+        <v>-0.5443582640000001</v>
+      </c>
+      <c r="Q39">
+        <v>-0.5003582640000001</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1434480126588886</v>
+      </c>
+      <c r="T39">
+        <v>1.477417016362107</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.001168825387319879</v>
+      </c>
+      <c r="W39">
+        <v>0.1834852867763493</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.005844126936599414</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.160005804082349</v>
+      </c>
+      <c r="C40">
+        <v>2.120282322880926</v>
+      </c>
+      <c r="D40">
+        <v>5.813882322880926</v>
+      </c>
+      <c r="E40">
+        <v>2.4366</v>
+      </c>
+      <c r="F40">
+        <v>3.8266</v>
+      </c>
+      <c r="G40">
+        <v>0.133</v>
+      </c>
+      <c r="H40">
+        <v>8.68</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.048</v>
+      </c>
+      <c r="K40">
+        <v>0.044</v>
+      </c>
+      <c r="L40">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M40">
+        <v>0.70294642</v>
+      </c>
+      <c r="N40">
+        <v>-0.69894642</v>
+      </c>
+      <c r="O40">
+        <v>-0.139789284</v>
+      </c>
+      <c r="P40">
+        <v>-0.5591571359999999</v>
+      </c>
+      <c r="Q40">
+        <v>-0.5151571359999999</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.145611690282419</v>
+      </c>
+      <c r="T40">
+        <v>1.501246323077625</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.001138066824495672</v>
+      </c>
+      <c r="W40">
+        <v>0.1834909371243401</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.005690334122478324</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1617498040823491</v>
+      </c>
+      <c r="C41">
+        <v>1.953072491450592</v>
+      </c>
+      <c r="D41">
+        <v>5.747372491450593</v>
+      </c>
+      <c r="E41">
+        <v>2.5373</v>
+      </c>
+      <c r="F41">
+        <v>3.9273</v>
+      </c>
+      <c r="G41">
+        <v>0.133</v>
+      </c>
+      <c r="H41">
+        <v>8.68</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.048</v>
+      </c>
+      <c r="K41">
+        <v>0.044</v>
+      </c>
+      <c r="L41">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M41">
+        <v>0.7214450100000001</v>
+      </c>
+      <c r="N41">
+        <v>-0.71744501</v>
+      </c>
+      <c r="O41">
+        <v>-0.143489002</v>
+      </c>
+      <c r="P41">
+        <v>-0.573956008</v>
+      </c>
+      <c r="Q41">
+        <v>-0.529956008</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1478463081559013</v>
+      </c>
+      <c r="T41">
+        <v>1.525856918537914</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.001108885623867578</v>
+      </c>
+      <c r="W41">
+        <v>0.1834962977108955</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.005544428119337863</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.163493804082349</v>
+      </c>
+      <c r="C42">
+        <v>1.78736717113476</v>
+      </c>
+      <c r="D42">
+        <v>5.682367171134761</v>
+      </c>
+      <c r="E42">
+        <v>2.638000000000001</v>
+      </c>
+      <c r="F42">
+        <v>4.028</v>
+      </c>
+      <c r="G42">
+        <v>0.133</v>
+      </c>
+      <c r="H42">
+        <v>8.68</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.048</v>
+      </c>
+      <c r="K42">
+        <v>0.044</v>
+      </c>
+      <c r="L42">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M42">
+        <v>0.7399436000000001</v>
+      </c>
+      <c r="N42">
+        <v>-0.7359436000000001</v>
+      </c>
+      <c r="O42">
+        <v>-0.14718872</v>
+      </c>
+      <c r="P42">
+        <v>-0.5887548800000001</v>
+      </c>
+      <c r="Q42">
+        <v>-0.5447548800000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.150155413291833</v>
+      </c>
+      <c r="T42">
+        <v>1.551287867180212</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.001081163483270888</v>
+      </c>
+      <c r="W42">
+        <v>0.1835013902681231</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.005405817416354486</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1652378040823491</v>
+      </c>
+      <c r="C43">
+        <v>1.623115882819672</v>
+      </c>
+      <c r="D43">
+        <v>5.618815882819672</v>
+      </c>
+      <c r="E43">
+        <v>2.738700000000001</v>
+      </c>
+      <c r="F43">
+        <v>4.1287</v>
+      </c>
+      <c r="G43">
+        <v>0.133</v>
+      </c>
+      <c r="H43">
+        <v>8.68</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.048</v>
+      </c>
+      <c r="K43">
+        <v>0.044</v>
+      </c>
+      <c r="L43">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M43">
+        <v>0.75844219</v>
+      </c>
+      <c r="N43">
+        <v>-0.75444219</v>
+      </c>
+      <c r="O43">
+        <v>-0.150888438</v>
+      </c>
+      <c r="P43">
+        <v>-0.6035537520000001</v>
+      </c>
+      <c r="Q43">
+        <v>-0.559553752</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1525427931781353</v>
+      </c>
+      <c r="T43">
+        <v>1.577580881878182</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.001054793642215501</v>
+      </c>
+      <c r="W43">
+        <v>0.183506234407925</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.005273968211077507</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.166981804082349</v>
+      </c>
+      <c r="C44">
+        <v>1.460270380637825</v>
+      </c>
+      <c r="D44">
+        <v>5.556670380637825</v>
+      </c>
+      <c r="E44">
+        <v>2.8394</v>
+      </c>
+      <c r="F44">
+        <v>4.2294</v>
+      </c>
+      <c r="G44">
+        <v>0.133</v>
+      </c>
+      <c r="H44">
+        <v>8.68</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.048</v>
+      </c>
+      <c r="K44">
+        <v>0.044</v>
+      </c>
+      <c r="L44">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M44">
+        <v>0.77694078</v>
+      </c>
+      <c r="N44">
+        <v>-0.77294078</v>
+      </c>
+      <c r="O44">
+        <v>-0.154588156</v>
+      </c>
+      <c r="P44">
+        <v>-0.618352624</v>
+      </c>
+      <c r="Q44">
+        <v>-0.574352624</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1550124965087927</v>
+      </c>
+      <c r="T44">
+        <v>1.604780552255392</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.001029679507877036</v>
+      </c>
+      <c r="W44">
+        <v>0.183510847874403</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.00514839753938523</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1687258040823491</v>
+      </c>
+      <c r="C45">
+        <v>1.298784529817673</v>
+      </c>
+      <c r="D45">
+        <v>5.495884529817673</v>
+      </c>
+      <c r="E45">
+        <v>2.9401</v>
+      </c>
+      <c r="F45">
+        <v>4.3301</v>
+      </c>
+      <c r="G45">
+        <v>0.133</v>
+      </c>
+      <c r="H45">
+        <v>8.68</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.048</v>
+      </c>
+      <c r="K45">
+        <v>0.044</v>
+      </c>
+      <c r="L45">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M45">
+        <v>0.79543937</v>
+      </c>
+      <c r="N45">
+        <v>-0.79143937</v>
+      </c>
+      <c r="O45">
+        <v>-0.158287874</v>
+      </c>
+      <c r="P45">
+        <v>-0.633151496</v>
+      </c>
+      <c r="Q45">
+        <v>-0.5891514959999999</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1575688560966663</v>
+      </c>
+      <c r="T45">
+        <v>1.632934597031803</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.001005733472810128</v>
+      </c>
+      <c r="W45">
+        <v>0.1835152467610448</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.00502866736405061</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1704698040823491</v>
+      </c>
+      <c r="C46">
+        <v>1.138614192464003</v>
+      </c>
+      <c r="D46">
+        <v>5.436414192464004</v>
+      </c>
+      <c r="E46">
+        <v>3.040800000000001</v>
+      </c>
+      <c r="F46">
+        <v>4.430800000000001</v>
+      </c>
+      <c r="G46">
+        <v>0.133</v>
+      </c>
+      <c r="H46">
+        <v>8.68</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.048</v>
+      </c>
+      <c r="K46">
+        <v>0.044</v>
+      </c>
+      <c r="L46">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M46">
+        <v>0.8139379600000001</v>
+      </c>
+      <c r="N46">
+        <v>-0.8099379600000001</v>
+      </c>
+      <c r="O46">
+        <v>-0.161987592</v>
+      </c>
+      <c r="P46">
+        <v>-0.6479503680000001</v>
+      </c>
+      <c r="Q46">
+        <v>-0.603950368</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1602165142412496</v>
+      </c>
+      <c r="T46">
+        <v>1.66209414340737</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.0009828758938826255</v>
+      </c>
+      <c r="W46">
+        <v>0.1835194456982938</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.004914379469413088</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.172213804082349</v>
+      </c>
+      <c r="C47">
+        <v>0.9797171206746498</v>
+      </c>
+      <c r="D47">
+        <v>5.37821712067465</v>
+      </c>
+      <c r="E47">
+        <v>3.141500000000001</v>
+      </c>
+      <c r="F47">
+        <v>4.5315</v>
+      </c>
+      <c r="G47">
+        <v>0.133</v>
+      </c>
+      <c r="H47">
+        <v>8.68</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.048</v>
+      </c>
+      <c r="K47">
+        <v>0.044</v>
+      </c>
+      <c r="L47">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M47">
+        <v>0.8324365500000001</v>
+      </c>
+      <c r="N47">
+        <v>-0.82843655</v>
+      </c>
+      <c r="O47">
+        <v>-0.16568731</v>
+      </c>
+      <c r="P47">
+        <v>-0.66274924</v>
+      </c>
+      <c r="Q47">
+        <v>-0.61874924</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1629604508638178</v>
+      </c>
+      <c r="T47">
+        <v>1.692314036923868</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.0009610342073519004</v>
+      </c>
+      <c r="W47">
+        <v>0.1835234580161094</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.004805171036759481</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1739578040823491</v>
+      </c>
+      <c r="C48">
+        <v>0.8220528564496412</v>
+      </c>
+      <c r="D48">
+        <v>5.321252856449641</v>
+      </c>
+      <c r="E48">
+        <v>3.2422</v>
+      </c>
+      <c r="F48">
+        <v>4.6322</v>
+      </c>
+      <c r="G48">
+        <v>0.133</v>
+      </c>
+      <c r="H48">
+        <v>8.68</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.048</v>
+      </c>
+      <c r="K48">
+        <v>0.044</v>
+      </c>
+      <c r="L48">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M48">
+        <v>0.85093514</v>
+      </c>
+      <c r="N48">
+        <v>-0.84693514</v>
+      </c>
+      <c r="O48">
+        <v>-0.169387028</v>
+      </c>
+      <c r="P48">
+        <v>-0.677548112</v>
+      </c>
+      <c r="Q48">
+        <v>-0.6335481119999999</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1658060147687033</v>
+      </c>
+      <c r="T48">
+        <v>1.723653185755792</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.0009401421593659896</v>
+      </c>
+      <c r="W48">
+        <v>0.1835272958853245</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.004700710796829988</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.175701804082349</v>
+      </c>
+      <c r="C49">
+        <v>0.6655826378944649</v>
+      </c>
+      <c r="D49">
+        <v>5.265482637894466</v>
+      </c>
+      <c r="E49">
+        <v>3.342900000000001</v>
+      </c>
+      <c r="F49">
+        <v>4.732900000000001</v>
+      </c>
+      <c r="G49">
+        <v>0.133</v>
+      </c>
+      <c r="H49">
+        <v>8.68</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.048</v>
+      </c>
+      <c r="K49">
+        <v>0.044</v>
+      </c>
+      <c r="L49">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M49">
+        <v>0.8694337300000001</v>
+      </c>
+      <c r="N49">
+        <v>-0.8654337300000001</v>
+      </c>
+      <c r="O49">
+        <v>-0.173086746</v>
+      </c>
+      <c r="P49">
+        <v>-0.6923469840000001</v>
+      </c>
+      <c r="Q49">
+        <v>-0.648346984</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1687589584435845</v>
+      </c>
+      <c r="T49">
+        <v>1.756174943977599</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.0009201391346986281</v>
+      </c>
+      <c r="W49">
+        <v>0.1835309704409558</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.004600695673493194</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.177445804082349</v>
+      </c>
+      <c r="C50">
+        <v>0.5102693112604539</v>
+      </c>
+      <c r="D50">
+        <v>5.210869311260454</v>
+      </c>
+      <c r="E50">
+        <v>3.4436</v>
+      </c>
+      <c r="F50">
+        <v>4.8336</v>
+      </c>
+      <c r="G50">
+        <v>0.133</v>
+      </c>
+      <c r="H50">
+        <v>8.68</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.048</v>
+      </c>
+      <c r="K50">
+        <v>0.044</v>
+      </c>
+      <c r="L50">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M50">
+        <v>0.88793232</v>
+      </c>
+      <c r="N50">
+        <v>-0.88393232</v>
+      </c>
+      <c r="O50">
+        <v>-0.176786464</v>
+      </c>
+      <c r="P50">
+        <v>-0.707145856</v>
+      </c>
+      <c r="Q50">
+        <v>-0.663145856</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1718254768751919</v>
+      </c>
+      <c r="T50">
+        <v>1.789947539054091</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.0009009695693924068</v>
+      </c>
+      <c r="W50">
+        <v>0.1835344918901026</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.004504847846962035</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1791898040823491</v>
+      </c>
+      <c r="C51">
+        <v>0.3560772484028529</v>
+      </c>
+      <c r="D51">
+        <v>5.157377248402853</v>
+      </c>
+      <c r="E51">
+        <v>3.544300000000001</v>
+      </c>
+      <c r="F51">
+        <v>4.9343</v>
+      </c>
+      <c r="G51">
+        <v>0.133</v>
+      </c>
+      <c r="H51">
+        <v>8.68</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.048</v>
+      </c>
+      <c r="K51">
+        <v>0.044</v>
+      </c>
+      <c r="L51">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M51">
+        <v>0.9064309100000001</v>
+      </c>
+      <c r="N51">
+        <v>-0.9024309100000001</v>
+      </c>
+      <c r="O51">
+        <v>-0.180486182</v>
+      </c>
+      <c r="P51">
+        <v>-0.7219447280000001</v>
+      </c>
+      <c r="Q51">
+        <v>-0.6779447280000001</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1750122509315682</v>
+      </c>
+      <c r="T51">
+        <v>1.825044549623779</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.0008825824353231739</v>
+      </c>
+      <c r="W51">
+        <v>0.1835378696066312</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.00441291217661588</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.180933804082349</v>
+      </c>
+      <c r="C52">
+        <v>0.2029722692712417</v>
+      </c>
+      <c r="D52">
+        <v>5.104972269271242</v>
+      </c>
+      <c r="E52">
+        <v>3.645</v>
+      </c>
+      <c r="F52">
+        <v>5.035</v>
+      </c>
+      <c r="G52">
+        <v>0.133</v>
+      </c>
+      <c r="H52">
+        <v>8.68</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.048</v>
+      </c>
+      <c r="K52">
+        <v>0.044</v>
+      </c>
+      <c r="L52">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M52">
+        <v>0.9249295000000001</v>
+      </c>
+      <c r="N52">
+        <v>-0.9209295000000001</v>
+      </c>
+      <c r="O52">
+        <v>-0.1841859</v>
+      </c>
+      <c r="P52">
+        <v>-0.7367436000000001</v>
+      </c>
+      <c r="Q52">
+        <v>-0.6927436</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1783264959501996</v>
+      </c>
+      <c r="T52">
+        <v>1.861545440616255</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.0008649307866167104</v>
+      </c>
+      <c r="W52">
+        <v>0.1835411122144985</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.004324653933083566</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.182677804082349</v>
+      </c>
+      <c r="C53">
+        <v>0.05092156907792234</v>
+      </c>
+      <c r="D53">
+        <v>5.053621569077922</v>
+      </c>
+      <c r="E53">
+        <v>3.7457</v>
+      </c>
+      <c r="F53">
+        <v>5.1357</v>
+      </c>
+      <c r="G53">
+        <v>0.133</v>
+      </c>
+      <c r="H53">
+        <v>8.68</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.048</v>
+      </c>
+      <c r="K53">
+        <v>0.044</v>
+      </c>
+      <c r="L53">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M53">
+        <v>0.9434280900000001</v>
+      </c>
+      <c r="N53">
+        <v>-0.93942809</v>
+      </c>
+      <c r="O53">
+        <v>-0.187885618</v>
+      </c>
+      <c r="P53">
+        <v>-0.751542472</v>
+      </c>
+      <c r="Q53">
+        <v>-0.707542472</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1817760162757139</v>
+      </c>
+      <c r="T53">
+        <v>1.899536163894137</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.0008479713594281475</v>
+      </c>
+      <c r="W53">
+        <v>0.183544227661273</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.004239856797140784</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.184421804082349</v>
+      </c>
+      <c r="C54">
+        <v>-0.1001063501817923</v>
+      </c>
+      <c r="D54">
+        <v>5.003293649818208</v>
+      </c>
+      <c r="E54">
+        <v>3.846400000000001</v>
+      </c>
+      <c r="F54">
+        <v>5.236400000000001</v>
+      </c>
+      <c r="G54">
+        <v>0.133</v>
+      </c>
+      <c r="H54">
+        <v>8.68</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.048</v>
+      </c>
+      <c r="K54">
+        <v>0.044</v>
+      </c>
+      <c r="L54">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M54">
+        <v>0.9619266800000001</v>
+      </c>
+      <c r="N54">
+        <v>-0.9579266800000001</v>
+      </c>
+      <c r="O54">
+        <v>-0.1915853360000001</v>
+      </c>
+      <c r="P54">
+        <v>-0.7663413440000001</v>
+      </c>
+      <c r="Q54">
+        <v>-0.7223413440000001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1853692666147913</v>
+      </c>
+      <c r="T54">
+        <v>1.939109833975265</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.0008316642179006831</v>
+      </c>
+      <c r="W54">
+        <v>0.1835472232831716</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.004158321089503425</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1861658040823491</v>
+      </c>
+      <c r="C55">
+        <v>-0.2501417441577827</v>
+      </c>
+      <c r="D55">
+        <v>4.953958255842218</v>
+      </c>
+      <c r="E55">
+        <v>3.947100000000001</v>
+      </c>
+      <c r="F55">
+        <v>5.3371</v>
+      </c>
+      <c r="G55">
+        <v>0.133</v>
+      </c>
+      <c r="H55">
+        <v>8.68</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.048</v>
+      </c>
+      <c r="K55">
+        <v>0.044</v>
+      </c>
+      <c r="L55">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M55">
+        <v>0.9804252700000001</v>
+      </c>
+      <c r="N55">
+        <v>-0.9764252700000001</v>
+      </c>
+      <c r="O55">
+        <v>-0.195285054</v>
+      </c>
+      <c r="P55">
+        <v>-0.7811402160000001</v>
+      </c>
+      <c r="Q55">
+        <v>-0.737140216</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1891154212236166</v>
+      </c>
+      <c r="T55">
+        <v>1.980367490017293</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.0008159724402044438</v>
+      </c>
+      <c r="W55">
+        <v>0.1835501058627344</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.004079862201022189</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.187909804082349</v>
+      </c>
+      <c r="C56">
+        <v>-0.3992136867987668</v>
+      </c>
+      <c r="D56">
+        <v>4.905586313201233</v>
+      </c>
+      <c r="E56">
+        <v>4.047800000000001</v>
+      </c>
+      <c r="F56">
+        <v>5.4378</v>
+      </c>
+      <c r="G56">
+        <v>0.133</v>
+      </c>
+      <c r="H56">
+        <v>8.68</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.048</v>
+      </c>
+      <c r="K56">
+        <v>0.044</v>
+      </c>
+      <c r="L56">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M56">
+        <v>0.99892386</v>
+      </c>
+      <c r="N56">
+        <v>-0.99492386</v>
+      </c>
+      <c r="O56">
+        <v>-0.198984772</v>
+      </c>
+      <c r="P56">
+        <v>-0.795939088</v>
+      </c>
+      <c r="Q56">
+        <v>-0.751939088</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1930244521197821</v>
+      </c>
+      <c r="T56">
+        <v>2.023418957191581</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.0008008618394599172</v>
+      </c>
+      <c r="W56">
+        <v>0.1835528816800912</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.004004309197299549</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1896538040823491</v>
+      </c>
+      <c r="C57">
+        <v>-0.5473501274868529</v>
+      </c>
+      <c r="D57">
+        <v>4.858149872513148</v>
+      </c>
+      <c r="E57">
+        <v>4.148500000000001</v>
+      </c>
+      <c r="F57">
+        <v>5.538500000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.133</v>
+      </c>
+      <c r="H57">
+        <v>8.68</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.048</v>
+      </c>
+      <c r="K57">
+        <v>0.044</v>
+      </c>
+      <c r="L57">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M57">
+        <v>1.01742245</v>
+      </c>
+      <c r="N57">
+        <v>-1.01342245</v>
+      </c>
+      <c r="O57">
+        <v>-0.2026844900000001</v>
+      </c>
+      <c r="P57">
+        <v>-0.8107379600000002</v>
+      </c>
+      <c r="Q57">
+        <v>-0.7667379600000002</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.197107217722444</v>
+      </c>
+      <c r="T57">
+        <v>2.06838382290695</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.0007863007151061003</v>
+      </c>
+      <c r="W57">
+        <v>0.183555556558635</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.003931503575530515</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1913978040823491</v>
+      </c>
+      <c r="C58">
+        <v>-0.6945779448889322</v>
+      </c>
+      <c r="D58">
+        <v>4.811622055111068</v>
+      </c>
+      <c r="E58">
+        <v>4.249200000000001</v>
+      </c>
+      <c r="F58">
+        <v>5.639200000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.133</v>
+      </c>
+      <c r="H58">
+        <v>8.68</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.048</v>
+      </c>
+      <c r="K58">
+        <v>0.044</v>
+      </c>
+      <c r="L58">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M58">
+        <v>1.03592104</v>
+      </c>
+      <c r="N58">
+        <v>-1.03192104</v>
+      </c>
+      <c r="O58">
+        <v>-0.206384208</v>
+      </c>
+      <c r="P58">
+        <v>-0.8255368320000001</v>
+      </c>
+      <c r="Q58">
+        <v>-0.781536832</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.2013755635797723</v>
+      </c>
+      <c r="T58">
+        <v>2.115392546154835</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.0007722596309077772</v>
+      </c>
+      <c r="W58">
+        <v>0.1835581359058022</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.003861298154538839</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1931418040823491</v>
+      </c>
+      <c r="C59">
+        <v>-0.8409229977429327</v>
+      </c>
+      <c r="D59">
+        <v>4.765977002257068</v>
+      </c>
+      <c r="E59">
+        <v>4.349900000000001</v>
+      </c>
+      <c r="F59">
+        <v>5.7399</v>
+      </c>
+      <c r="G59">
+        <v>0.133</v>
+      </c>
+      <c r="H59">
+        <v>8.68</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.048</v>
+      </c>
+      <c r="K59">
+        <v>0.044</v>
+      </c>
+      <c r="L59">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M59">
+        <v>1.05441963</v>
+      </c>
+      <c r="N59">
+        <v>-1.05041963</v>
+      </c>
+      <c r="O59">
+        <v>-0.210083926</v>
+      </c>
+      <c r="P59">
+        <v>-0.8403357040000001</v>
+      </c>
+      <c r="Q59">
+        <v>-0.7963357040000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.2058424371513949</v>
+      </c>
+      <c r="T59">
+        <v>2.164587721646808</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.0007587112163304477</v>
+      </c>
+      <c r="W59">
+        <v>0.1835606247495601</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.003793556081652216</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1948858040823491</v>
+      </c>
+      <c r="C60">
+        <v>-0.9864101727805661</v>
+      </c>
+      <c r="D60">
+        <v>4.721189827219433</v>
+      </c>
+      <c r="E60">
+        <v>4.4506</v>
+      </c>
+      <c r="F60">
+        <v>5.840599999999999</v>
+      </c>
+      <c r="G60">
+        <v>0.133</v>
+      </c>
+      <c r="H60">
+        <v>8.68</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.048</v>
+      </c>
+      <c r="K60">
+        <v>0.044</v>
+      </c>
+      <c r="L60">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M60">
+        <v>1.07291822</v>
+      </c>
+      <c r="N60">
+        <v>-1.06891822</v>
+      </c>
+      <c r="O60">
+        <v>-0.213783644</v>
+      </c>
+      <c r="P60">
+        <v>-0.8551345759999999</v>
+      </c>
+      <c r="Q60">
+        <v>-0.8111345759999998</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.2105220189883328</v>
+      </c>
+      <c r="T60">
+        <v>2.21612552454316</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.0007456299884626816</v>
+      </c>
+      <c r="W60">
+        <v>0.1835630277711194</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.003728149942313408</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.196629804082349</v>
+      </c>
+      <c r="C61">
+        <v>-1.131063429973164</v>
+      </c>
+      <c r="D61">
+        <v>4.677236570026836</v>
+      </c>
+      <c r="E61">
+        <v>4.5513</v>
+      </c>
+      <c r="F61">
+        <v>5.9413</v>
+      </c>
+      <c r="G61">
+        <v>0.133</v>
+      </c>
+      <c r="H61">
+        <v>8.68</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.048</v>
+      </c>
+      <c r="K61">
+        <v>0.044</v>
+      </c>
+      <c r="L61">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M61">
+        <v>1.09141681</v>
+      </c>
+      <c r="N61">
+        <v>-1.08741681</v>
+      </c>
+      <c r="O61">
+        <v>-0.217483362</v>
+      </c>
+      <c r="P61">
+        <v>-0.8699334480000001</v>
+      </c>
+      <c r="Q61">
+        <v>-0.825933448</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.2154298731099995</v>
+      </c>
+      <c r="T61">
+        <v>2.270177366605189</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.0007329921920480598</v>
+      </c>
+      <c r="W61">
+        <v>0.1835653493343208</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.003664960960240271</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1983738040823491</v>
+      </c>
+      <c r="C62">
+        <v>-1.274905845273457</v>
+      </c>
+      <c r="D62">
+        <v>4.634094154726543</v>
+      </c>
+      <c r="E62">
+        <v>4.652</v>
+      </c>
+      <c r="F62">
+        <v>6.042</v>
+      </c>
+      <c r="G62">
+        <v>0.133</v>
+      </c>
+      <c r="H62">
+        <v>8.68</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.048</v>
+      </c>
+      <c r="K62">
+        <v>0.044</v>
+      </c>
+      <c r="L62">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M62">
+        <v>1.1099154</v>
+      </c>
+      <c r="N62">
+        <v>-1.1059154</v>
+      </c>
+      <c r="O62">
+        <v>-0.22118308</v>
+      </c>
+      <c r="P62">
+        <v>-0.88473232</v>
+      </c>
+      <c r="Q62">
+        <v>-0.84073232</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2205831199377495</v>
+      </c>
+      <c r="T62">
+        <v>2.326931800770318</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.0007207756555139255</v>
+      </c>
+      <c r="W62">
+        <v>0.1835675935120821</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.003603878277569583</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.200117804082349</v>
+      </c>
+      <c r="C63">
+        <v>-1.417959651013487</v>
+      </c>
+      <c r="D63">
+        <v>4.591740348986512</v>
+      </c>
+      <c r="E63">
+        <v>4.7527</v>
+      </c>
+      <c r="F63">
+        <v>6.1427</v>
+      </c>
+      <c r="G63">
+        <v>0.133</v>
+      </c>
+      <c r="H63">
+        <v>8.68</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.048</v>
+      </c>
+      <c r="K63">
+        <v>0.044</v>
+      </c>
+      <c r="L63">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M63">
+        <v>1.12841399</v>
+      </c>
+      <c r="N63">
+        <v>-1.12441399</v>
+      </c>
+      <c r="O63">
+        <v>-0.224882798</v>
+      </c>
+      <c r="P63">
+        <v>-0.8995311919999999</v>
+      </c>
+      <c r="Q63">
+        <v>-0.8555311919999998</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2260006358335892</v>
+      </c>
+      <c r="T63">
+        <v>2.386596718738788</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.0007089596611612382</v>
+      </c>
+      <c r="W63">
+        <v>0.1835697641102447</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.003544798305806229</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.2018618040823491</v>
+      </c>
+      <c r="C64">
+        <v>-1.560246274107277</v>
+      </c>
+      <c r="D64">
+        <v>4.550153725892724</v>
+      </c>
+      <c r="E64">
+        <v>4.853400000000001</v>
+      </c>
+      <c r="F64">
+        <v>6.2434</v>
+      </c>
+      <c r="G64">
+        <v>0.133</v>
+      </c>
+      <c r="H64">
+        <v>8.68</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.048</v>
+      </c>
+      <c r="K64">
+        <v>0.044</v>
+      </c>
+      <c r="L64">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M64">
+        <v>1.14691258</v>
+      </c>
+      <c r="N64">
+        <v>-1.14291258</v>
+      </c>
+      <c r="O64">
+        <v>-0.228582516</v>
+      </c>
+      <c r="P64">
+        <v>-0.9143300639999999</v>
+      </c>
+      <c r="Q64">
+        <v>-0.8703300639999999</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2317032841449994</v>
+      </c>
+      <c r="T64">
+        <v>2.449401895547703</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.000697524827916702</v>
+      </c>
+      <c r="W64">
+        <v>0.1835718646891117</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.003487624139583478</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.203605804082349</v>
+      </c>
+      <c r="C65">
+        <v>-1.701786372196129</v>
+      </c>
+      <c r="D65">
+        <v>4.509313627803871</v>
+      </c>
+      <c r="E65">
+        <v>4.9541</v>
+      </c>
+      <c r="F65">
+        <v>6.3441</v>
+      </c>
+      <c r="G65">
+        <v>0.133</v>
+      </c>
+      <c r="H65">
+        <v>8.68</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.048</v>
+      </c>
+      <c r="K65">
+        <v>0.044</v>
+      </c>
+      <c r="L65">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M65">
+        <v>1.16541117</v>
+      </c>
+      <c r="N65">
+        <v>-1.16141117</v>
+      </c>
+      <c r="O65">
+        <v>-0.232282234</v>
+      </c>
+      <c r="P65">
+        <v>-0.929128936</v>
+      </c>
+      <c r="Q65">
+        <v>-0.885128936</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2377141837164859</v>
+      </c>
+      <c r="T65">
+        <v>2.515601946778722</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.0006864530052513576</v>
+      </c>
+      <c r="W65">
+        <v>0.1835738985829353</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.00343226502625682</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.205349804082349</v>
+      </c>
+      <c r="C66">
+        <v>-1.842599867864745</v>
+      </c>
+      <c r="D66">
+        <v>4.469200132135255</v>
+      </c>
+      <c r="E66">
+        <v>5.054800000000001</v>
+      </c>
+      <c r="F66">
+        <v>6.444800000000001</v>
+      </c>
+      <c r="G66">
+        <v>0.133</v>
+      </c>
+      <c r="H66">
+        <v>8.68</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.048</v>
+      </c>
+      <c r="K66">
+        <v>0.044</v>
+      </c>
+      <c r="L66">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M66">
+        <v>1.18390976</v>
+      </c>
+      <c r="N66">
+        <v>-1.17990976</v>
+      </c>
+      <c r="O66">
+        <v>-0.2359819520000001</v>
+      </c>
+      <c r="P66">
+        <v>-0.9439278080000001</v>
+      </c>
+      <c r="Q66">
+        <v>-0.8999278080000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.244059022153055</v>
+      </c>
+      <c r="T66">
+        <v>2.585479778633687</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.0006757271770443051</v>
+      </c>
+      <c r="W66">
+        <v>0.183575868917577</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.00337863588522147</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2070938040823491</v>
+      </c>
+      <c r="C67">
+        <v>-1.982705981047132</v>
+      </c>
+      <c r="D67">
+        <v>4.429794018952869</v>
+      </c>
+      <c r="E67">
+        <v>5.155500000000001</v>
+      </c>
+      <c r="F67">
+        <v>6.545500000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.133</v>
+      </c>
+      <c r="H67">
+        <v>8.68</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.048</v>
+      </c>
+      <c r="K67">
+        <v>0.044</v>
+      </c>
+      <c r="L67">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M67">
+        <v>1.20240835</v>
+      </c>
+      <c r="N67">
+        <v>-1.19840835</v>
+      </c>
+      <c r="O67">
+        <v>-0.23968167</v>
+      </c>
+      <c r="P67">
+        <v>-0.9587266800000001</v>
+      </c>
+      <c r="Q67">
+        <v>-0.91472668</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2507664227859994</v>
+      </c>
+      <c r="T67">
+        <v>2.659350629451793</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.0006653313743205466</v>
+      </c>
+      <c r="W67">
+        <v>0.1835777786265373</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.003326656871602718</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.208837804082349</v>
+      </c>
+      <c r="C68">
+        <v>-2.122123259733157</v>
+      </c>
+      <c r="D68">
+        <v>4.391076740266843</v>
+      </c>
+      <c r="E68">
+        <v>5.256200000000001</v>
+      </c>
+      <c r="F68">
+        <v>6.6462</v>
+      </c>
+      <c r="G68">
+        <v>0.133</v>
+      </c>
+      <c r="H68">
+        <v>8.68</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.048</v>
+      </c>
+      <c r="K68">
+        <v>0.044</v>
+      </c>
+      <c r="L68">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M68">
+        <v>1.22090694</v>
+      </c>
+      <c r="N68">
+        <v>-1.21690694</v>
+      </c>
+      <c r="O68">
+        <v>-0.243381388</v>
+      </c>
+      <c r="P68">
+        <v>-0.9735255520000001</v>
+      </c>
+      <c r="Q68">
+        <v>-0.9295255520000001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2578683763973523</v>
+      </c>
+      <c r="T68">
+        <v>2.737566824435669</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.0006552505959217503</v>
+      </c>
+      <c r="W68">
+        <v>0.1835796304655292</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.003276252979608762</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2105818040823491</v>
+      </c>
+      <c r="C69">
+        <v>-2.260869609078737</v>
+      </c>
+      <c r="D69">
+        <v>4.353030390921264</v>
+      </c>
+      <c r="E69">
+        <v>5.356900000000001</v>
+      </c>
+      <c r="F69">
+        <v>6.746900000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.133</v>
+      </c>
+      <c r="H69">
+        <v>8.68</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.048</v>
+      </c>
+      <c r="K69">
+        <v>0.044</v>
+      </c>
+      <c r="L69">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M69">
+        <v>1.23940553</v>
+      </c>
+      <c r="N69">
+        <v>-1.23540553</v>
+      </c>
+      <c r="O69">
+        <v>-0.2470811060000001</v>
+      </c>
+      <c r="P69">
+        <v>-0.9883244240000002</v>
+      </c>
+      <c r="Q69">
+        <v>-0.9443244240000002</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2654007514396964</v>
+      </c>
+      <c r="T69">
+        <v>2.820523394873114</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.0006454707362811272</v>
+      </c>
+      <c r="W69">
+        <v>0.1835814270257452</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.003227353681405587</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.212325804082349</v>
+      </c>
+      <c r="C70">
+        <v>-2.398962319015682</v>
+      </c>
+      <c r="D70">
+        <v>4.315637680984318</v>
+      </c>
+      <c r="E70">
+        <v>5.457600000000001</v>
+      </c>
+      <c r="F70">
+        <v>6.847600000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.133</v>
+      </c>
+      <c r="H70">
+        <v>8.68</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.048</v>
+      </c>
+      <c r="K70">
+        <v>0.044</v>
+      </c>
+      <c r="L70">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M70">
+        <v>1.25790412</v>
+      </c>
+      <c r="N70">
+        <v>-1.25390412</v>
+      </c>
+      <c r="O70">
+        <v>-0.250780824</v>
+      </c>
+      <c r="P70">
+        <v>-1.003123296</v>
+      </c>
+      <c r="Q70">
+        <v>-0.959123296</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2734038999221868</v>
+      </c>
+      <c r="T70">
+        <v>2.908664750962898</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.0006359785195711107</v>
+      </c>
+      <c r="W70">
+        <v>0.1835831707459548</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.00317989259785556</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.214069804082349</v>
+      </c>
+      <c r="C71">
+        <v>-2.536418090450664</v>
+      </c>
+      <c r="D71">
+        <v>4.278881909549336</v>
+      </c>
+      <c r="E71">
+        <v>5.558300000000001</v>
+      </c>
+      <c r="F71">
+        <v>6.948300000000001</v>
+      </c>
+      <c r="G71">
+        <v>0.133</v>
+      </c>
+      <c r="H71">
+        <v>8.68</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.048</v>
+      </c>
+      <c r="K71">
+        <v>0.044</v>
+      </c>
+      <c r="L71">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M71">
+        <v>1.27640271</v>
+      </c>
+      <c r="N71">
+        <v>-1.27240271</v>
+      </c>
+      <c r="O71">
+        <v>-0.254480542</v>
+      </c>
+      <c r="P71">
+        <v>-1.017922168</v>
+      </c>
+      <c r="Q71">
+        <v>-0.9739221680000001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2819233805648381</v>
+      </c>
+      <c r="T71">
+        <v>3.00249264615525</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.0006267614395773263</v>
+      </c>
+      <c r="W71">
+        <v>0.1835848639235496</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.003133807197886584</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.215813804082349</v>
+      </c>
+      <c r="C72">
+        <v>-2.673253060136655</v>
+      </c>
+      <c r="D72">
+        <v>4.242746939863347</v>
+      </c>
+      <c r="E72">
+        <v>5.659000000000002</v>
+      </c>
+      <c r="F72">
+        <v>7.049000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.133</v>
+      </c>
+      <c r="H72">
+        <v>8.68</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.048</v>
+      </c>
+      <c r="K72">
+        <v>0.044</v>
+      </c>
+      <c r="L72">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M72">
+        <v>1.2949013</v>
+      </c>
+      <c r="N72">
+        <v>-1.2909013</v>
+      </c>
+      <c r="O72">
+        <v>-0.2581802600000001</v>
+      </c>
+      <c r="P72">
+        <v>-1.03272104</v>
+      </c>
+      <c r="Q72">
+        <v>-0.9887210400000002</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.291010826583666</v>
+      </c>
+      <c r="T72">
+        <v>3.102575734360425</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.0006178077047262217</v>
+      </c>
+      <c r="W72">
+        <v>0.1835865087246418</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.003089038523631071</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.217557804082349</v>
+      </c>
+      <c r="C73">
+        <v>-2.809482824294714</v>
+      </c>
+      <c r="D73">
+        <v>4.207217175705286</v>
+      </c>
+      <c r="E73">
+        <v>5.7597</v>
+      </c>
+      <c r="F73">
+        <v>7.1497</v>
+      </c>
+      <c r="G73">
+        <v>0.133</v>
+      </c>
+      <c r="H73">
+        <v>8.68</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.048</v>
+      </c>
+      <c r="K73">
+        <v>0.044</v>
+      </c>
+      <c r="L73">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M73">
+        <v>1.31339989</v>
+      </c>
+      <c r="N73">
+        <v>-1.30939989</v>
+      </c>
+      <c r="O73">
+        <v>-0.261879978</v>
+      </c>
+      <c r="P73">
+        <v>-1.047519912</v>
+      </c>
+      <c r="Q73">
+        <v>-1.003519912</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.3007249930175854</v>
+      </c>
+      <c r="T73">
+        <v>3.209561104510784</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.0006091061877582468</v>
+      </c>
+      <c r="W73">
+        <v>0.1835881071933088</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.00304553093879123</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2193018040823491</v>
+      </c>
+      <c r="C74">
+        <v>-2.945122461058753</v>
+      </c>
+      <c r="D74">
+        <v>4.172277538941247</v>
+      </c>
+      <c r="E74">
+        <v>5.8604</v>
+      </c>
+      <c r="F74">
+        <v>7.2504</v>
+      </c>
+      <c r="G74">
+        <v>0.133</v>
+      </c>
+      <c r="H74">
+        <v>8.68</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.048</v>
+      </c>
+      <c r="K74">
+        <v>0.044</v>
+      </c>
+      <c r="L74">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M74">
+        <v>1.33189848</v>
+      </c>
+      <c r="N74">
+        <v>-1.32789848</v>
+      </c>
+      <c r="O74">
+        <v>-0.265579696</v>
+      </c>
+      <c r="P74">
+        <v>-1.062318784</v>
+      </c>
+      <c r="Q74">
+        <v>-1.018318784</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3111330284824992</v>
+      </c>
+      <c r="T74">
+        <v>3.324188286814741</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.0006006463795949379</v>
+      </c>
+      <c r="W74">
+        <v>0.1835896612600684</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.00300323189797469</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.221045804082349</v>
+      </c>
+      <c r="C75">
+        <v>-3.080186551811094</v>
+      </c>
+      <c r="D75">
+        <v>4.137913448188906</v>
+      </c>
+      <c r="E75">
+        <v>5.9611</v>
+      </c>
+      <c r="F75">
+        <v>7.3511</v>
+      </c>
+      <c r="G75">
+        <v>0.133</v>
+      </c>
+      <c r="H75">
+        <v>8.68</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.048</v>
+      </c>
+      <c r="K75">
+        <v>0.044</v>
+      </c>
+      <c r="L75">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M75">
+        <v>1.35039707</v>
+      </c>
+      <c r="N75">
+        <v>-1.34639707</v>
+      </c>
+      <c r="O75">
+        <v>-0.269279414</v>
+      </c>
+      <c r="P75">
+        <v>-1.077117656</v>
+      </c>
+      <c r="Q75">
+        <v>-1.033117656</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3223120295374066</v>
+      </c>
+      <c r="T75">
+        <v>3.447306371511583</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.000592418346997747</v>
+      </c>
+      <c r="W75">
+        <v>0.1835911727496565</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.002962091734988737</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.222789804082349</v>
+      </c>
+      <c r="C76">
+        <v>-3.21468920147233</v>
+      </c>
+      <c r="D76">
+        <v>4.10411079852767</v>
+      </c>
+      <c r="E76">
+        <v>6.061800000000001</v>
+      </c>
+      <c r="F76">
+        <v>7.4518</v>
+      </c>
+      <c r="G76">
+        <v>0.133</v>
+      </c>
+      <c r="H76">
+        <v>8.68</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.048</v>
+      </c>
+      <c r="K76">
+        <v>0.044</v>
+      </c>
+      <c r="L76">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M76">
+        <v>1.36889566</v>
+      </c>
+      <c r="N76">
+        <v>-1.36489566</v>
+      </c>
+      <c r="O76">
+        <v>-0.2729791320000001</v>
+      </c>
+      <c r="P76">
+        <v>-1.091916528</v>
+      </c>
+      <c r="Q76">
+        <v>-1.047916528</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3343509537503837</v>
+      </c>
+      <c r="T76">
+        <v>3.579895078108182</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.0005844126936599395</v>
+      </c>
+      <c r="W76">
+        <v>0.1835926433881747</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.002922063468299707</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.224533804082349</v>
+      </c>
+      <c r="C77">
+        <v>-3.34864405780472</v>
+      </c>
+      <c r="D77">
+        <v>4.07085594219528</v>
+      </c>
+      <c r="E77">
+        <v>6.162500000000001</v>
+      </c>
+      <c r="F77">
+        <v>7.5525</v>
+      </c>
+      <c r="G77">
+        <v>0.133</v>
+      </c>
+      <c r="H77">
+        <v>8.68</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.048</v>
+      </c>
+      <c r="K77">
+        <v>0.044</v>
+      </c>
+      <c r="L77">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M77">
+        <v>1.38739425</v>
+      </c>
+      <c r="N77">
+        <v>-1.38339425</v>
+      </c>
+      <c r="O77">
+        <v>-0.27667885</v>
+      </c>
+      <c r="P77">
+        <v>-1.1067154</v>
+      </c>
+      <c r="Q77">
+        <v>-1.0627154</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3473529919003991</v>
+      </c>
+      <c r="T77">
+        <v>3.72309088123251</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.0005766205244111403</v>
+      </c>
+      <c r="W77">
+        <v>0.1835940748096657</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.002883102622055711</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2262778040823491</v>
+      </c>
+      <c r="C78">
+        <v>-3.482064329784679</v>
+      </c>
+      <c r="D78">
+        <v>4.038135670215321</v>
+      </c>
+      <c r="E78">
+        <v>6.2632</v>
+      </c>
+      <c r="F78">
+        <v>7.6532</v>
+      </c>
+      <c r="G78">
+        <v>0.133</v>
+      </c>
+      <c r="H78">
+        <v>8.68</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.048</v>
+      </c>
+      <c r="K78">
+        <v>0.044</v>
+      </c>
+      <c r="L78">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M78">
+        <v>1.40589284</v>
+      </c>
+      <c r="N78">
+        <v>-1.40189284</v>
+      </c>
+      <c r="O78">
+        <v>-0.280378568</v>
+      </c>
+      <c r="P78">
+        <v>-1.121514272</v>
+      </c>
+      <c r="Q78">
+        <v>-1.077514272</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3614385332295825</v>
+      </c>
+      <c r="T78">
+        <v>3.878219667950532</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.000569033412247836</v>
+      </c>
+      <c r="W78">
+        <v>0.1835954685621701</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.002845167061239162</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.228021804082349</v>
+      </c>
+      <c r="C79">
+        <v>-3.614962805096286</v>
+      </c>
+      <c r="D79">
+        <v>4.005937194903715</v>
+      </c>
+      <c r="E79">
+        <v>6.363900000000001</v>
+      </c>
+      <c r="F79">
+        <v>7.753900000000001</v>
+      </c>
+      <c r="G79">
+        <v>0.133</v>
+      </c>
+      <c r="H79">
+        <v>8.68</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.048</v>
+      </c>
+      <c r="K79">
+        <v>0.044</v>
+      </c>
+      <c r="L79">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M79">
+        <v>1.42439143</v>
+      </c>
+      <c r="N79">
+        <v>-1.42039143</v>
+      </c>
+      <c r="O79">
+        <v>-0.2840782860000001</v>
+      </c>
+      <c r="P79">
+        <v>-1.136313144</v>
+      </c>
+      <c r="Q79">
+        <v>-1.092313144</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3767489042395643</v>
+      </c>
+      <c r="T79">
+        <v>4.046837914383162</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.0005616433679329288</v>
+      </c>
+      <c r="W79">
+        <v>0.1835968261133107</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.00280821683966459</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.229765804082349</v>
+      </c>
+      <c r="C80">
+        <v>-3.7473518667945</v>
+      </c>
+      <c r="D80">
+        <v>3.9742481332055</v>
+      </c>
+      <c r="E80">
+        <v>6.464600000000001</v>
+      </c>
+      <c r="F80">
+        <v>7.8546</v>
+      </c>
+      <c r="G80">
+        <v>0.133</v>
+      </c>
+      <c r="H80">
+        <v>8.68</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.048</v>
+      </c>
+      <c r="K80">
+        <v>0.044</v>
+      </c>
+      <c r="L80">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M80">
+        <v>1.44289002</v>
+      </c>
+      <c r="N80">
+        <v>-1.43889002</v>
+      </c>
+      <c r="O80">
+        <v>-0.287778004</v>
+      </c>
+      <c r="P80">
+        <v>-1.151112016</v>
+      </c>
+      <c r="Q80">
+        <v>-1.107112016</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3934511271595445</v>
+      </c>
+      <c r="T80">
+        <v>4.23078509230967</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.0005544428119337888</v>
+      </c>
+      <c r="W80">
+        <v>0.1835981488554478</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.002772214059668987</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2315098040823491</v>
+      </c>
+      <c r="C81">
+        <v>-3.879243509183699</v>
+      </c>
+      <c r="D81">
+        <v>3.943056490816301</v>
+      </c>
+      <c r="E81">
+        <v>6.565300000000001</v>
+      </c>
+      <c r="F81">
+        <v>7.9553</v>
+      </c>
+      <c r="G81">
+        <v>0.133</v>
+      </c>
+      <c r="H81">
+        <v>8.68</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.048</v>
+      </c>
+      <c r="K81">
+        <v>0.044</v>
+      </c>
+      <c r="L81">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M81">
+        <v>1.46138861</v>
+      </c>
+      <c r="N81">
+        <v>-1.45738861</v>
+      </c>
+      <c r="O81">
+        <v>-0.291477722</v>
+      </c>
+      <c r="P81">
+        <v>-1.165910888</v>
+      </c>
+      <c r="Q81">
+        <v>-1.121910888</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.4117440379766657</v>
+      </c>
+      <c r="T81">
+        <v>4.432251049086322</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.000547424548491589</v>
+      </c>
+      <c r="W81">
+        <v>0.1835994381104421</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.002737122742457965</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.233253804082349</v>
+      </c>
+      <c r="C82">
+        <v>-4.010649352954296</v>
+      </c>
+      <c r="D82">
+        <v>3.912350647045705</v>
+      </c>
+      <c r="E82">
+        <v>6.666000000000001</v>
+      </c>
+      <c r="F82">
+        <v>8.056000000000001</v>
+      </c>
+      <c r="G82">
+        <v>0.133</v>
+      </c>
+      <c r="H82">
+        <v>8.68</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.048</v>
+      </c>
+      <c r="K82">
+        <v>0.044</v>
+      </c>
+      <c r="L82">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M82">
+        <v>1.4798872</v>
+      </c>
+      <c r="N82">
+        <v>-1.4758872</v>
+      </c>
+      <c r="O82">
+        <v>-0.2951774400000001</v>
+      </c>
+      <c r="P82">
+        <v>-1.18070976</v>
+      </c>
+      <c r="Q82">
+        <v>-1.13670976</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4318662398754989</v>
+      </c>
+      <c r="T82">
+        <v>4.653863601540637</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.000540581741635444</v>
+      </c>
+      <c r="W82">
+        <v>0.1836006951340616</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.002702908708177243</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.234997804082349</v>
+      </c>
+      <c r="C83">
+        <v>-4.141580659617601</v>
+      </c>
+      <c r="D83">
+        <v>3.8821193403824</v>
+      </c>
+      <c r="E83">
+        <v>6.766700000000001</v>
+      </c>
+      <c r="F83">
+        <v>8.156700000000001</v>
+      </c>
+      <c r="G83">
+        <v>0.133</v>
+      </c>
+      <c r="H83">
+        <v>8.68</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.048</v>
+      </c>
+      <c r="K83">
+        <v>0.044</v>
+      </c>
+      <c r="L83">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M83">
+        <v>1.49838579</v>
+      </c>
+      <c r="N83">
+        <v>-1.49438579</v>
+      </c>
+      <c r="O83">
+        <v>-0.298877158</v>
+      </c>
+      <c r="P83">
+        <v>-1.195508632</v>
+      </c>
+      <c r="Q83">
+        <v>-1.151508632</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.4541065682899989</v>
+      </c>
+      <c r="T83">
+        <v>4.898803791095408</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.000533907892973278</v>
+      </c>
+      <c r="W83">
+        <v>0.1836019211200608</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.002669539464866366</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2367418040823491</v>
+      </c>
+      <c r="C84">
+        <v>-4.272048345276546</v>
+      </c>
+      <c r="D84">
+        <v>3.852351654723455</v>
+      </c>
+      <c r="E84">
+        <v>6.867400000000001</v>
+      </c>
+      <c r="F84">
+        <v>8.257400000000001</v>
+      </c>
+      <c r="G84">
+        <v>0.133</v>
+      </c>
+      <c r="H84">
+        <v>8.68</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.048</v>
+      </c>
+      <c r="K84">
+        <v>0.044</v>
+      </c>
+      <c r="L84">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M84">
+        <v>1.51688438</v>
+      </c>
+      <c r="N84">
+        <v>-1.51288438</v>
+      </c>
+      <c r="O84">
+        <v>-0.3025768760000001</v>
+      </c>
+      <c r="P84">
+        <v>-1.210307504</v>
+      </c>
+      <c r="Q84">
+        <v>-1.166307504</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.4788180443061101</v>
+      </c>
+      <c r="T84">
+        <v>5.170959557267376</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.0005273968211077503</v>
+      </c>
+      <c r="W84">
+        <v>0.1836031172039625</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.002636984105538698</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.238485804082349</v>
+      </c>
+      <c r="C85">
+        <v>-4.402062993767704</v>
+      </c>
+      <c r="D85">
+        <v>3.823037006232296</v>
+      </c>
+      <c r="E85">
+        <v>6.968100000000001</v>
+      </c>
+      <c r="F85">
+        <v>8.3581</v>
+      </c>
+      <c r="G85">
+        <v>0.133</v>
+      </c>
+      <c r="H85">
+        <v>8.68</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.048</v>
+      </c>
+      <c r="K85">
+        <v>0.044</v>
+      </c>
+      <c r="L85">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M85">
+        <v>1.53538297</v>
+      </c>
+      <c r="N85">
+        <v>-1.53138297</v>
+      </c>
+      <c r="O85">
+        <v>-0.3062765940000001</v>
+      </c>
+      <c r="P85">
+        <v>-1.225106376</v>
+      </c>
+      <c r="Q85">
+        <v>-1.181106376</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.5064367527947048</v>
+      </c>
+      <c r="T85">
+        <v>5.475133648871339</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.000521042642540187</v>
+      </c>
+      <c r="W85">
+        <v>0.1836042844665654</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.002605213212700908</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2402298040823491</v>
+      </c>
+      <c r="C86">
+        <v>-4.531634869207791</v>
+      </c>
+      <c r="D86">
+        <v>3.794165130792209</v>
+      </c>
+      <c r="E86">
+        <v>7.0688</v>
+      </c>
+      <c r="F86">
+        <v>8.4588</v>
+      </c>
+      <c r="G86">
+        <v>0.133</v>
+      </c>
+      <c r="H86">
+        <v>8.68</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.048</v>
+      </c>
+      <c r="K86">
+        <v>0.044</v>
+      </c>
+      <c r="L86">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M86">
+        <v>1.55388156</v>
+      </c>
+      <c r="N86">
+        <v>-1.54988156</v>
+      </c>
+      <c r="O86">
+        <v>-0.309976312</v>
+      </c>
+      <c r="P86">
+        <v>-1.239905248</v>
+      </c>
+      <c r="Q86">
+        <v>-1.195905248</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.5375077998443736</v>
+      </c>
+      <c r="T86">
+        <v>5.817329501925795</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.0005148397539385182</v>
+      </c>
+      <c r="W86">
+        <v>0.1836054239372015</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.002574198769692559</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.241973804082349</v>
+      </c>
+      <c r="C87">
+        <v>-4.660773927975917</v>
+      </c>
+      <c r="D87">
+        <v>3.765726072024082</v>
+      </c>
+      <c r="E87">
+        <v>7.1695</v>
+      </c>
+      <c r="F87">
+        <v>8.5595</v>
+      </c>
+      <c r="G87">
+        <v>0.133</v>
+      </c>
+      <c r="H87">
+        <v>8.68</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.048</v>
+      </c>
+      <c r="K87">
+        <v>0.044</v>
+      </c>
+      <c r="L87">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M87">
+        <v>1.57238015</v>
+      </c>
+      <c r="N87">
+        <v>-1.56838015</v>
+      </c>
+      <c r="O87">
+        <v>-0.3136760300000001</v>
+      </c>
+      <c r="P87">
+        <v>-1.25470412</v>
+      </c>
+      <c r="Q87">
+        <v>-1.21070412</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.5727216531673318</v>
+      </c>
+      <c r="T87">
+        <v>6.205151468720849</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.0005087828156568884</v>
+      </c>
+      <c r="W87">
+        <v>0.1836065365967638</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.00254391407828447</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2437178040823491</v>
+      </c>
+      <c r="C88">
+        <v>-4.789489830160988</v>
+      </c>
+      <c r="D88">
+        <v>3.737710169839012</v>
+      </c>
+      <c r="E88">
+        <v>7.2702</v>
+      </c>
+      <c r="F88">
+        <v>8.6602</v>
+      </c>
+      <c r="G88">
+        <v>0.133</v>
+      </c>
+      <c r="H88">
+        <v>8.68</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.048</v>
+      </c>
+      <c r="K88">
+        <v>0.044</v>
+      </c>
+      <c r="L88">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M88">
+        <v>1.59087874</v>
+      </c>
+      <c r="N88">
+        <v>-1.58687874</v>
+      </c>
+      <c r="O88">
+        <v>-0.317375748</v>
+      </c>
+      <c r="P88">
+        <v>-1.269502992</v>
+      </c>
+      <c r="Q88">
+        <v>-1.225502992</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.6129660569649984</v>
+      </c>
+      <c r="T88">
+        <v>6.648376573629481</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.0005028667364050642</v>
+      </c>
+      <c r="W88">
+        <v>0.1836076233805224</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.00251433368202536</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.245461804082349</v>
+      </c>
+      <c r="C89">
+        <v>-4.917791950501863</v>
+      </c>
+      <c r="D89">
+        <v>3.710108049498137</v>
+      </c>
+      <c r="E89">
+        <v>7.3709</v>
+      </c>
+      <c r="F89">
+        <v>8.760899999999999</v>
+      </c>
+      <c r="G89">
+        <v>0.133</v>
+      </c>
+      <c r="H89">
+        <v>8.68</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.048</v>
+      </c>
+      <c r="K89">
+        <v>0.044</v>
+      </c>
+      <c r="L89">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M89">
+        <v>1.60937733</v>
+      </c>
+      <c r="N89">
+        <v>-1.60537733</v>
+      </c>
+      <c r="O89">
+        <v>-0.321075466</v>
+      </c>
+      <c r="P89">
+        <v>-1.284301864</v>
+      </c>
+      <c r="Q89">
+        <v>-1.240301864</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.6594019075007674</v>
+      </c>
+      <c r="T89">
+        <v>7.159790156216363</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.0004970866589751211</v>
+      </c>
+      <c r="W89">
+        <v>0.1836086851807463</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.002485433294875605</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2472058040823491</v>
+      </c>
+      <c r="C90">
+        <v>-5.045689388846348</v>
+      </c>
+      <c r="D90">
+        <v>3.682910611153653</v>
+      </c>
+      <c r="E90">
+        <v>7.471600000000001</v>
+      </c>
+      <c r="F90">
+        <v>8.861600000000001</v>
+      </c>
+      <c r="G90">
+        <v>0.133</v>
+      </c>
+      <c r="H90">
+        <v>8.68</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.048</v>
+      </c>
+      <c r="K90">
+        <v>0.044</v>
+      </c>
+      <c r="L90">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M90">
+        <v>1.62787592</v>
+      </c>
+      <c r="N90">
+        <v>-1.62387592</v>
+      </c>
+      <c r="O90">
+        <v>-0.3247751840000001</v>
+      </c>
+      <c r="P90">
+        <v>-1.299100736</v>
+      </c>
+      <c r="Q90">
+        <v>-1.255100736</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.713577066459165</v>
+      </c>
+      <c r="T90">
+        <v>7.756439335901062</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.0004914379469413127</v>
+      </c>
+      <c r="W90">
+        <v>0.1836097228491469</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.002457189734706544</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.248949804082349</v>
+      </c>
+      <c r="C91">
+        <v>-5.173190980153491</v>
+      </c>
+      <c r="D91">
+        <v>3.65610901984651</v>
+      </c>
+      <c r="E91">
+        <v>7.572300000000001</v>
+      </c>
+      <c r="F91">
+        <v>8.962300000000001</v>
+      </c>
+      <c r="G91">
+        <v>0.133</v>
+      </c>
+      <c r="H91">
+        <v>8.68</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.048</v>
+      </c>
+      <c r="K91">
+        <v>0.044</v>
+      </c>
+      <c r="L91">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M91">
+        <v>1.64637451</v>
+      </c>
+      <c r="N91">
+        <v>-1.64237451</v>
+      </c>
+      <c r="O91">
+        <v>-0.3284749020000001</v>
+      </c>
+      <c r="P91">
+        <v>-1.313899608</v>
+      </c>
+      <c r="Q91">
+        <v>-1.269899608</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.777602254319089</v>
+      </c>
+      <c r="T91">
+        <v>8.46157018461934</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.0004859161722565789</v>
+      </c>
+      <c r="W91">
+        <v>0.1836107371991565</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.002429580861282865</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.250693804082349</v>
+      </c>
+      <c r="C92">
+        <v>-5.300305304062306</v>
+      </c>
+      <c r="D92">
+        <v>3.629694695937694</v>
+      </c>
+      <c r="E92">
+        <v>7.673000000000001</v>
+      </c>
+      <c r="F92">
+        <v>9.063000000000001</v>
+      </c>
+      <c r="G92">
+        <v>0.133</v>
+      </c>
+      <c r="H92">
+        <v>8.68</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.048</v>
+      </c>
+      <c r="K92">
+        <v>0.044</v>
+      </c>
+      <c r="L92">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M92">
+        <v>1.6648731</v>
+      </c>
+      <c r="N92">
+        <v>-1.6608731</v>
+      </c>
+      <c r="O92">
+        <v>-0.33217462</v>
+      </c>
+      <c r="P92">
+        <v>-1.32869848</v>
+      </c>
+      <c r="Q92">
+        <v>-1.28469848</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.8544324797509979</v>
+      </c>
+      <c r="T92">
+        <v>9.307727203081274</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.0004805171036759502</v>
+      </c>
+      <c r="W92">
+        <v>0.1836117290080547</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.002402585518379796</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2524378040823491</v>
+      </c>
+      <c r="C93">
+        <v>-5.427040694048685</v>
+      </c>
+      <c r="D93">
+        <v>3.603659305951316</v>
+      </c>
+      <c r="E93">
+        <v>7.773700000000001</v>
+      </c>
+      <c r="F93">
+        <v>9.1637</v>
+      </c>
+      <c r="G93">
+        <v>0.133</v>
+      </c>
+      <c r="H93">
+        <v>8.68</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.048</v>
+      </c>
+      <c r="K93">
+        <v>0.044</v>
+      </c>
+      <c r="L93">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M93">
+        <v>1.68337169</v>
+      </c>
+      <c r="N93">
+        <v>-1.67937169</v>
+      </c>
+      <c r="O93">
+        <v>-0.3358743380000001</v>
+      </c>
+      <c r="P93">
+        <v>-1.343497352</v>
+      </c>
+      <c r="Q93">
+        <v>-1.299497352</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.9483360886122202</v>
+      </c>
+      <c r="T93">
+        <v>10.34191911453475</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.0004752366959432474</v>
+      </c>
+      <c r="W93">
+        <v>0.1836126990189552</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.002376183479716243</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2541818040823491</v>
+      </c>
+      <c r="C94">
+        <v>-5.553405246191014</v>
+      </c>
+      <c r="D94">
+        <v>3.577994753808986</v>
+      </c>
+      <c r="E94">
+        <v>7.874400000000001</v>
+      </c>
+      <c r="F94">
+        <v>9.2644</v>
+      </c>
+      <c r="G94">
+        <v>0.133</v>
+      </c>
+      <c r="H94">
+        <v>8.68</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.048</v>
+      </c>
+      <c r="K94">
+        <v>0.044</v>
+      </c>
+      <c r="L94">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M94">
+        <v>1.70187028</v>
+      </c>
+      <c r="N94">
+        <v>-1.69787028</v>
+      </c>
+      <c r="O94">
+        <v>-0.339574056</v>
+      </c>
+      <c r="P94">
+        <v>-1.358296224</v>
+      </c>
+      <c r="Q94">
+        <v>-1.314296224</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.065715599688748</v>
+      </c>
+      <c r="T94">
+        <v>11.6346590038516</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.0004700710796829948</v>
+      </c>
+      <c r="W94">
+        <v>0.1836136479426622</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.002350355398414994</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2559258040823491</v>
+      </c>
+      <c r="C95">
+        <v>-5.679406827563898</v>
+      </c>
+      <c r="D95">
+        <v>3.552693172436101</v>
+      </c>
+      <c r="E95">
+        <v>7.9751</v>
+      </c>
+      <c r="F95">
+        <v>9.3651</v>
+      </c>
+      <c r="G95">
+        <v>0.133</v>
+      </c>
+      <c r="H95">
+        <v>8.68</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.048</v>
+      </c>
+      <c r="K95">
+        <v>0.044</v>
+      </c>
+      <c r="L95">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M95">
+        <v>1.72036887</v>
+      </c>
+      <c r="N95">
+        <v>-1.71636887</v>
+      </c>
+      <c r="O95">
+        <v>-0.343273774</v>
+      </c>
+      <c r="P95">
+        <v>-1.373095096</v>
+      </c>
+      <c r="Q95">
+        <v>-1.329095096</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.216632113929998</v>
+      </c>
+      <c r="T95">
+        <v>13.29675314725897</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.0004650165519444681</v>
+      </c>
+      <c r="W95">
+        <v>0.1836145764594078</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.002325082759722319</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2576698040823491</v>
+      </c>
+      <c r="C96">
+        <v>-5.80505308427824</v>
+      </c>
+      <c r="D96">
+        <v>3.527746915721762</v>
+      </c>
+      <c r="E96">
+        <v>8.075800000000001</v>
+      </c>
+      <c r="F96">
+        <v>9.465800000000002</v>
+      </c>
+      <c r="G96">
+        <v>0.133</v>
+      </c>
+      <c r="H96">
+        <v>8.68</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.048</v>
+      </c>
+      <c r="K96">
+        <v>0.044</v>
+      </c>
+      <c r="L96">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M96">
+        <v>1.73886746</v>
+      </c>
+      <c r="N96">
+        <v>-1.73486746</v>
+      </c>
+      <c r="O96">
+        <v>-0.346973492</v>
+      </c>
+      <c r="P96">
+        <v>-1.387893968</v>
+      </c>
+      <c r="Q96">
+        <v>-1.343893968</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.417854132918331</v>
+      </c>
+      <c r="T96">
+        <v>15.51287867180214</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.000460069567349314</v>
+      </c>
+      <c r="W96">
+        <v>0.1836154852204779</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.002300347836746597</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.259413804082349</v>
+      </c>
+      <c r="C97">
+        <v>-5.930351449184931</v>
+      </c>
+      <c r="D97">
+        <v>3.50314855081507</v>
+      </c>
+      <c r="E97">
+        <v>8.176500000000001</v>
+      </c>
+      <c r="F97">
+        <v>9.566500000000001</v>
+      </c>
+      <c r="G97">
+        <v>0.133</v>
+      </c>
+      <c r="H97">
+        <v>8.68</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.048</v>
+      </c>
+      <c r="K97">
+        <v>0.044</v>
+      </c>
+      <c r="L97">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M97">
+        <v>1.75736605</v>
+      </c>
+      <c r="N97">
+        <v>-1.75336605</v>
+      </c>
+      <c r="O97">
+        <v>-0.3506732100000001</v>
+      </c>
+      <c r="P97">
+        <v>-1.40269284</v>
+      </c>
+      <c r="Q97">
+        <v>-1.35869284</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.699564959501998</v>
+      </c>
+      <c r="T97">
+        <v>18.61545440616257</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.0004552267297982686</v>
+      </c>
+      <c r="W97">
+        <v>0.1836163748497361</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.002276133648991374</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.261157804082349</v>
+      </c>
+      <c r="C98">
+        <v>-6.055309149258514</v>
+      </c>
+      <c r="D98">
+        <v>3.478890850741485</v>
+      </c>
+      <c r="E98">
+        <v>8.277199999999999</v>
+      </c>
+      <c r="F98">
+        <v>9.667199999999999</v>
+      </c>
+      <c r="G98">
+        <v>0.133</v>
+      </c>
+      <c r="H98">
+        <v>8.68</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.048</v>
+      </c>
+      <c r="K98">
+        <v>0.044</v>
+      </c>
+      <c r="L98">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M98">
+        <v>1.77586464</v>
+      </c>
+      <c r="N98">
+        <v>-1.77186464</v>
+      </c>
+      <c r="O98">
+        <v>-0.354372928</v>
+      </c>
+      <c r="P98">
+        <v>-1.417491712</v>
+      </c>
+      <c r="Q98">
+        <v>-1.373491712</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.122131199377493</v>
+      </c>
+      <c r="T98">
+        <v>23.26931800770316</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.0004504847846962034</v>
+      </c>
+      <c r="W98">
+        <v>0.1836172459450513</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.002252423923481017</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2629018040823491</v>
+      </c>
+      <c r="C99">
+        <v>-6.179933212676152</v>
+      </c>
+      <c r="D99">
+        <v>3.454966787323847</v>
+      </c>
+      <c r="E99">
+        <v>8.377899999999999</v>
+      </c>
+      <c r="F99">
+        <v>9.767899999999999</v>
+      </c>
+      <c r="G99">
+        <v>0.133</v>
+      </c>
+      <c r="H99">
+        <v>8.68</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.048</v>
+      </c>
+      <c r="K99">
+        <v>0.044</v>
+      </c>
+      <c r="L99">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M99">
+        <v>1.79436323</v>
+      </c>
+      <c r="N99">
+        <v>-1.79036323</v>
+      </c>
+      <c r="O99">
+        <v>-0.358072646</v>
+      </c>
+      <c r="P99">
+        <v>-1.432290584</v>
+      </c>
+      <c r="Q99">
+        <v>-1.388290584</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.826408265836657</v>
+      </c>
+      <c r="T99">
+        <v>31.02575734360422</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.0004458406116580983</v>
+      </c>
+      <c r="W99">
+        <v>0.1836180990796384</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.002229203058290441</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.264645804082349</v>
+      </c>
+      <c r="C100">
+        <v>-6.304230475606502</v>
+      </c>
+      <c r="D100">
+        <v>3.431369524393499</v>
+      </c>
+      <c r="E100">
+        <v>8.4786</v>
+      </c>
+      <c r="F100">
+        <v>9.868600000000001</v>
+      </c>
+      <c r="G100">
+        <v>0.133</v>
+      </c>
+      <c r="H100">
+        <v>8.68</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.048</v>
+      </c>
+      <c r="K100">
+        <v>0.044</v>
+      </c>
+      <c r="L100">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M100">
+        <v>1.81286182</v>
+      </c>
+      <c r="N100">
+        <v>-1.80886182</v>
+      </c>
+      <c r="O100">
+        <v>-0.3617723640000001</v>
+      </c>
+      <c r="P100">
+        <v>-1.447089456</v>
+      </c>
+      <c r="Q100">
+        <v>-1.403089456</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>4.234962398754985</v>
+      </c>
+      <c r="T100">
+        <v>46.53863601540633</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.000441291217661587</v>
+      </c>
+      <c r="W100">
+        <v>0.1836189348033156</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.00220645608830794</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.266389804082349</v>
+      </c>
+      <c r="C101">
+        <v>-6.428207588722297</v>
+      </c>
+      <c r="D101">
+        <v>3.408092411277703</v>
+      </c>
+      <c r="E101">
+        <v>8.5793</v>
+      </c>
+      <c r="F101">
+        <v>9.9693</v>
+      </c>
+      <c r="G101">
+        <v>0.133</v>
+      </c>
+      <c r="H101">
+        <v>8.68</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.048</v>
+      </c>
+      <c r="K101">
+        <v>0.044</v>
+      </c>
+      <c r="L101">
+        <v>0.004000000000000004</v>
+      </c>
+      <c r="M101">
+        <v>1.83136041</v>
+      </c>
+      <c r="N101">
+        <v>-1.82736041</v>
+      </c>
+      <c r="O101">
+        <v>-0.365472082</v>
+      </c>
+      <c r="P101">
+        <v>-1.461888328</v>
+      </c>
+      <c r="Q101">
+        <v>-1.417888328</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>8.46062479750997</v>
+      </c>
+      <c r="T101">
+        <v>93.07727203081265</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.0004368337306145003</v>
+      </c>
+      <c r="W101">
+        <v>0.1836197536436861</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.002184168653072471</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
